--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -173,7 +176,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -185,7 +188,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,16 +638,19 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -703,16 +709,19 @@
       <c r="V2" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -771,16 +780,19 @@
       <c r="V3" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -839,16 +851,19 @@
       <c r="V4" t="n">
         <v>0.1899999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -907,16 +922,19 @@
       <c r="V5" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -975,16 +993,19 @@
       <c r="V6" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.3300000000000001</v>
@@ -1043,16 +1064,19 @@
       <c r="V7" t="n">
         <v>0.4099999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1111,16 +1135,19 @@
       <c r="V8" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1179,16 +1206,19 @@
       <c r="V9" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1247,16 +1277,19 @@
       <c r="V10" t="n">
         <v>0.1599999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1315,16 +1348,19 @@
       <c r="V11" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1383,16 +1419,19 @@
       <c r="V12" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1451,16 +1490,19 @@
       <c r="V13" t="n">
         <v>0.1699999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1519,16 +1561,19 @@
       <c r="V14" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1587,16 +1632,19 @@
       <c r="V15" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -1655,16 +1703,19 @@
       <c r="V16" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -1723,16 +1774,19 @@
       <c r="V17" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -1791,16 +1845,19 @@
       <c r="V18" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -1859,16 +1916,19 @@
       <c r="V19" t="n">
         <v>0.1699999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>0.1799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -1927,16 +1987,19 @@
       <c r="V20" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -1995,16 +2058,19 @@
       <c r="V21" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2063,16 +2129,19 @@
       <c r="V22" t="n">
         <v>0.3100000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2131,16 +2200,19 @@
       <c r="V23" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2199,16 +2271,19 @@
       <c r="V24" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
         <v>0.4399999999999999</v>
@@ -2267,16 +2342,19 @@
       <c r="V25" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2335,16 +2413,19 @@
       <c r="V26" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2403,16 +2484,19 @@
       <c r="V27" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.3100000000000001</v>
@@ -2471,16 +2555,19 @@
       <c r="V28" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -2539,16 +2626,19 @@
       <c r="V29" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -2607,16 +2697,19 @@
       <c r="V30" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -2675,16 +2768,19 @@
       <c r="V31" t="n">
         <v>0.1899999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -2743,16 +2839,19 @@
       <c r="V32" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -2811,16 +2910,19 @@
       <c r="V33" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -2879,16 +2981,19 @@
       <c r="V34" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
         <v>0.4</v>
@@ -2947,16 +3052,19 @@
       <c r="V35" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
         <v>0.3</v>
@@ -3015,16 +3123,19 @@
       <c r="V36" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>0.3</v>
@@ -3083,16 +3194,19 @@
       <c r="V37" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3151,16 +3265,19 @@
       <c r="V38" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
         <v>0.18</v>
@@ -3219,16 +3336,19 @@
       <c r="V39" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
         <v>0.3400000000000001</v>
@@ -3287,16 +3407,19 @@
       <c r="V40" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
         <v>0.61</v>
@@ -3355,16 +3478,19 @@
       <c r="V41" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3423,16 +3549,19 @@
       <c r="V42" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
         <v>0.22</v>
@@ -3491,16 +3620,19 @@
       <c r="V43" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
         <v>0.6</v>
@@ -3559,16 +3691,19 @@
       <c r="V44" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
         <v>0.16</v>
@@ -3627,16 +3762,19 @@
       <c r="V45" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
         <v>0.24</v>
@@ -3695,16 +3833,19 @@
       <c r="V46" t="n">
         <v>0.1000000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" t="n">
+        <v>0.1099999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -3763,16 +3904,19 @@
       <c r="V47" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -3831,16 +3975,19 @@
       <c r="V48" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -3899,16 +4046,19 @@
       <c r="V49" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -3967,16 +4117,19 @@
       <c r="V50" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -4035,16 +4188,19 @@
       <c r="V51" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -4103,16 +4259,19 @@
       <c r="V52" t="n">
         <v>0.08999999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -4171,16 +4330,19 @@
       <c r="V53" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -4239,16 +4401,19 @@
       <c r="V54" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -4307,16 +4472,19 @@
       <c r="V55" t="n">
         <v>0.1899999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -4375,16 +4543,19 @@
       <c r="V56" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -4443,16 +4614,19 @@
       <c r="V57" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -4511,16 +4685,19 @@
       <c r="V58" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -4579,16 +4756,19 @@
       <c r="V59" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -4647,16 +4827,19 @@
       <c r="V60" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -4715,10 +4898,13 @@
       <c r="V61" t="n">
         <v>0.1499999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4740,7 +4926,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4804,13 +4990,16 @@
       <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -4869,13 +5058,16 @@
       <c r="U2" t="n">
         <v>1199</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" t="n">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -4934,13 +5126,16 @@
       <c r="U3" t="n">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -4999,13 +5194,16 @@
       <c r="U4" t="n">
         <v>1048</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -5064,13 +5262,16 @@
       <c r="U5" t="n">
         <v>958</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -5129,13 +5330,16 @@
       <c r="U6" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -5194,13 +5398,16 @@
       <c r="U7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -5259,13 +5466,16 @@
       <c r="U8" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -5324,13 +5534,16 @@
       <c r="U9" t="n">
         <v>913</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -5389,13 +5602,16 @@
       <c r="U10" t="n">
         <v>165</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -5454,13 +5670,16 @@
       <c r="U11" t="n">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -5519,13 +5738,16 @@
       <c r="U12" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -5584,13 +5806,16 @@
       <c r="U13" t="n">
         <v>442</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -5649,13 +5874,16 @@
       <c r="U14" t="n">
         <v>466</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -5714,13 +5942,16 @@
       <c r="U15" t="n">
         <v>291</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>150</v>
@@ -5779,13 +6010,16 @@
       <c r="U16" t="n">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="n">
         <v>452</v>
@@ -5844,13 +6078,16 @@
       <c r="U17" t="n">
         <v>373</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="n">
         <v>503</v>
@@ -5909,13 +6146,16 @@
       <c r="U18" t="n">
         <v>406</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
         <v>246</v>
@@ -5974,13 +6214,16 @@
       <c r="U19" t="n">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -6039,13 +6282,16 @@
       <c r="U20" t="n">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -6104,13 +6350,16 @@
       <c r="U21" t="n">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -6169,13 +6418,16 @@
       <c r="U22" t="n">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -6234,13 +6486,16 @@
       <c r="U23" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -6299,10 +6554,13 @@
       <c r="U24" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -6324,6 +6582,7 @@
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="s"/>
+      <c r="V25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -176,7 +179,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -188,7 +191,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,16 +644,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -712,16 +718,19 @@
       <c r="W2" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -783,16 +792,19 @@
       <c r="W3" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -804,31 +816,31 @@
         <v>0.21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="P4" t="n">
         <v>0.22</v>
@@ -849,21 +861,24 @@
         <v>0.21</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="W4" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -923,18 +938,21 @@
         <v>0.27</v>
       </c>
       <c r="W5" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>0.22</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -994,21 +1012,24 @@
         <v>0.32</v>
       </c>
       <c r="W6" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>0.39</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="E7" t="n">
         <v>0.35</v>
@@ -1029,7 +1050,7 @@
         <v>0.34</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="L7" t="n">
         <v>0.36</v>
@@ -1044,7 +1065,7 @@
         <v>0.46</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="Q7" t="n">
         <v>0.5</v>
@@ -1062,21 +1083,24 @@
         <v>0.42</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="W7" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>0.39</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1136,18 +1160,21 @@
         <v>0.5</v>
       </c>
       <c r="W8" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1209,25 +1236,28 @@
       <c r="W9" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G10" t="n">
         <v>0.16</v>
@@ -1239,57 +1269,60 @@
         <v>0.11</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K10" t="n">
         <v>0.12</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>0.18</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1351,16 +1384,19 @@
       <c r="W11" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1422,87 +1458,93 @@
       <c r="W12" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="P13" t="n">
         <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0.19</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1564,16 +1606,19 @@
       <c r="W14" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1635,16 +1680,19 @@
       <c r="W15" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -1653,7 +1701,7 @@
         <v>0.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G16" t="n">
         <v>0.27</v>
@@ -1674,7 +1722,7 @@
         <v>0.23</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="N16" t="n">
         <v>0.28</v>
@@ -1683,22 +1731,22 @@
         <v>0.32</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="R16" t="n">
         <v>0.39</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="V16" t="n">
         <v>0.3</v>
@@ -1706,16 +1754,19 @@
       <c r="W16" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -1777,16 +1828,19 @@
       <c r="W17" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -1848,87 +1902,93 @@
       <c r="W18" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="H19" t="n">
         <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="K19" t="n">
         <v>0.14</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>0.18</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -1990,16 +2050,19 @@
       <c r="W20" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2061,16 +2124,19 @@
       <c r="W21" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2079,7 +2145,7 @@
         <v>0.37</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G22" t="n">
         <v>0.25</v>
@@ -2100,7 +2166,7 @@
         <v>0.24</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N22" t="n">
         <v>0.28</v>
@@ -2109,10 +2175,10 @@
         <v>0.29</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="R22" t="n">
         <v>0.37</v>
@@ -2127,21 +2193,24 @@
         <v>0.3</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="W22" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2203,16 +2272,19 @@
       <c r="W23" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2274,25 +2346,28 @@
       <c r="W24" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="E25" t="n">
         <v>0.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G25" t="n">
         <v>0.38</v>
@@ -2307,16 +2382,16 @@
         <v>0.27</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="M25" t="n">
         <v>0.18</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="O25" t="n">
         <v>0.3</v>
@@ -2325,13 +2400,13 @@
         <v>0.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="R25" t="n">
         <v>0.26</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="T25" t="n">
         <v>0.29</v>
@@ -2343,18 +2418,21 @@
         <v>0.21</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>0.16</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2416,16 +2494,19 @@
       <c r="W26" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2487,22 +2568,25 @@
       <c r="W27" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F28" t="n">
         <v>0.25</v>
@@ -2520,16 +2604,16 @@
         <v>0.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="M28" t="n">
         <v>0.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="O28" t="n">
         <v>0.24</v>
@@ -2558,16 +2642,19 @@
       <c r="W28" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -2629,16 +2716,19 @@
       <c r="W29" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -2700,52 +2790,55 @@
       <c r="W30" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="P31" t="n">
         <v>0.23</v>
@@ -2766,21 +2859,24 @@
         <v>0.2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="W31" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -2842,16 +2938,19 @@
       <c r="W32" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -2913,16 +3012,19 @@
       <c r="W33" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -2934,7 +3036,7 @@
         <v>0.15</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H34" t="n">
         <v>0.15</v>
@@ -2943,72 +3045,75 @@
         <v>0.13</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K34" t="n">
         <v>0.13</v>
       </c>
       <c r="L34" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="O34" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="V34" t="n">
         <v>0.14</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1599999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>0.16</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E35" t="n">
         <v>0.36</v>
       </c>
       <c r="F35" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G35" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="H35" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I35" t="n">
         <v>0.43</v>
@@ -3017,7 +3122,7 @@
         <v>0.43</v>
       </c>
       <c r="K35" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="L35" t="n">
         <v>0.47</v>
@@ -3029,10 +3134,10 @@
         <v>0.45</v>
       </c>
       <c r="O35" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="P35" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="Q35" t="n">
         <v>0.32</v>
@@ -3041,33 +3146,36 @@
         <v>0.35</v>
       </c>
       <c r="S35" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="T35" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="U35" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="V35" t="n">
         <v>0.27</v>
       </c>
       <c r="W35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.3</v>
       </c>
       <c r="E36" t="n">
         <v>0.27</v>
@@ -3076,19 +3184,19 @@
         <v>0.29</v>
       </c>
       <c r="G36" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="J36" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="L36" t="n">
         <v>0.3</v>
@@ -3100,66 +3208,69 @@
         <v>0.41</v>
       </c>
       <c r="O36" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="P36" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="Q36" t="n">
         <v>0.4</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="S36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T36" t="n">
         <v>0.42</v>
       </c>
-      <c r="T36" t="n">
-        <v>0.43</v>
-      </c>
       <c r="U36" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="V36" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="W36" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>0.46</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E37" t="n">
         <v>0.37</v>
       </c>
       <c r="F37" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="G37" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="J37" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="L37" t="n">
         <v>0.23</v>
@@ -3171,16 +3282,16 @@
         <v>0.14</v>
       </c>
       <c r="O37" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="Q37" t="n">
         <v>0.28</v>
       </c>
       <c r="R37" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="S37" t="n">
         <v>0.22</v>
@@ -3189,24 +3300,27 @@
         <v>0.25</v>
       </c>
       <c r="U37" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="X37" t="n">
         <v>0.2</v>
       </c>
-      <c r="V37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3215,10 +3329,10 @@
         <v>0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G38" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="H38" t="n">
         <v>0.44</v>
@@ -3236,31 +3350,31 @@
         <v>0.49</v>
       </c>
       <c r="M38" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="N38" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="O38" t="n">
         <v>0.41</v>
       </c>
       <c r="P38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R38" t="n">
         <v>0.39</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.38</v>
       </c>
       <c r="S38" t="n">
         <v>0.41</v>
       </c>
       <c r="T38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U38" t="n">
         <v>0.39</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.38</v>
       </c>
       <c r="V38" t="n">
         <v>0.42</v>
@@ -3268,34 +3382,37 @@
       <c r="W38" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E39" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.35</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.36</v>
-      </c>
       <c r="I39" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="J39" t="n">
         <v>0.41</v>
@@ -3310,7 +3427,7 @@
         <v>0.34</v>
       </c>
       <c r="N39" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="O39" t="n">
         <v>0.37</v>
@@ -3322,7 +3439,7 @@
         <v>0.39</v>
       </c>
       <c r="R39" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="S39" t="n">
         <v>0.34</v>
@@ -3331,30 +3448,33 @@
         <v>0.4</v>
       </c>
       <c r="U39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W39" t="n">
         <v>0.36</v>
       </c>
-      <c r="V39" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="E40" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F40" t="n">
         <v>0.24</v>
@@ -3363,75 +3483,78 @@
         <v>0.24</v>
       </c>
       <c r="H40" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.21</v>
       </c>
       <c r="J40" t="n">
         <v>0.2</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="L40" t="n">
         <v>0.16</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="O40" t="n">
         <v>0.22</v>
       </c>
       <c r="P40" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="R40" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="S40" t="n">
         <v>0.25</v>
       </c>
       <c r="T40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V40" t="n">
         <v>0.21</v>
       </c>
-      <c r="U40" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.22</v>
-      </c>
       <c r="W40" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>0.24</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F41" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H41" t="n">
         <v>0.58</v>
@@ -3446,31 +3569,31 @@
         <v>0.61</v>
       </c>
       <c r="L41" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="M41" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="N41" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="O41" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="R41" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="S41" t="n">
         <v>0.52</v>
       </c>
       <c r="T41" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="U41" t="n">
         <v>0.52</v>
@@ -3481,37 +3604,40 @@
       <c r="W41" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
       </c>
       <c r="E42" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F42" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.23</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>0.25</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.26</v>
       </c>
       <c r="K42" t="n">
         <v>0.23</v>
@@ -3520,13 +3646,13 @@
         <v>0.24</v>
       </c>
       <c r="M42" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N42" t="n">
         <v>0.26</v>
       </c>
       <c r="O42" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P42" t="n">
         <v>0.28</v>
@@ -3535,317 +3661,332 @@
         <v>0.31</v>
       </c>
       <c r="R42" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="S42" t="n">
         <v>0.27</v>
       </c>
-      <c r="S42" t="n">
-        <v>0.28</v>
-      </c>
       <c r="T42" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W42" t="n">
         <v>0.27</v>
       </c>
-      <c r="U42" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E43" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="G43" t="n">
         <v>0.16</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I43" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J43" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K43" t="n">
         <v>0.16</v>
       </c>
       <c r="L43" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="M43" t="n">
         <v>0.14</v>
       </c>
       <c r="N43" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="O43" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="Q43" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V43" t="n">
         <v>0.22</v>
       </c>
-      <c r="R43" t="n">
+      <c r="W43" t="n">
         <v>0.21</v>
       </c>
-      <c r="S43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.6</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>0.61</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.62</v>
       </c>
       <c r="J44" t="n">
         <v>0.66</v>
       </c>
       <c r="K44" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="L44" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.64</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.65</v>
-      </c>
       <c r="N44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="O44" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="P44" t="n">
         <v>0.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="R44" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="S44" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="T44" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V44" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="U44" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.6</v>
-      </c>
       <c r="W44" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="X44" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="H45" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I45" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="J45" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K45" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="L45" t="n">
         <v>0.29</v>
       </c>
       <c r="M45" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="N45" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O45" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="P45" t="n">
         <v>0.35</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="R45" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T45" t="n">
         <v>0.3</v>
       </c>
-      <c r="S45" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.29</v>
-      </c>
       <c r="U45" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="W45" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="E46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.13</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.07000000000000006</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.12</v>
       </c>
-      <c r="L46" t="n">
-        <v>0.07000000000000006</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.1199999999999999</v>
-      </c>
       <c r="O46" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="n">
         <v>0.13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1099999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>0.14</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -3907,16 +4048,19 @@
       <c r="W47" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -3978,16 +4122,19 @@
       <c r="W48" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -4002,10 +4149,10 @@
         <v>0.22</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="J49" t="n">
         <v>0.2</v>
@@ -4014,10 +4161,10 @@
         <v>0.2</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="N49" t="n">
         <v>0.22</v>
@@ -4029,10 +4176,10 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="S49" t="n">
         <v>0.26</v>
@@ -4049,16 +4196,19 @@
       <c r="W49" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -4120,16 +4270,19 @@
       <c r="W50" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -4191,16 +4344,19 @@
       <c r="W51" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -4212,66 +4368,69 @@
         <v>0.16</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H52" t="n">
         <v>0.13</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="L52" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N52" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O52" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="P52" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="R52" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="S52" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="T52" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="V52" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="W52" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -4333,16 +4492,19 @@
       <c r="W53" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -4404,16 +4566,19 @@
       <c r="W54" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -4434,10 +4599,10 @@
         <v>0.21</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L55" t="n">
         <v>0.22</v>
@@ -4446,7 +4611,7 @@
         <v>0.17</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="O55" t="n">
         <v>0.23</v>
@@ -4470,21 +4635,24 @@
         <v>0.27</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="W55" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -4546,16 +4714,19 @@
       <c r="W56" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -4617,58 +4788,61 @@
       <c r="W57" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="J58" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="K58" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="L58" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="N58" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="O58" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="P58" t="n">
         <v>0.14</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="R58" t="n">
         <v>0.14</v>
@@ -4686,18 +4860,21 @@
         <v>0.13</v>
       </c>
       <c r="W58" t="n">
-        <v>0.09999999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>0.1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -4759,16 +4936,19 @@
       <c r="W59" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -4830,16 +5010,19 @@
       <c r="W60" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -4851,10 +5034,10 @@
         <v>0.12</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
         <v>0.13</v>
@@ -4863,10 +5046,10 @@
         <v>0.13</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="L61" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="M61" t="n">
         <v>0.12</v>
@@ -4875,7 +5058,7 @@
         <v>0.14</v>
       </c>
       <c r="O61" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="P61" t="n">
         <v>0.18</v>
@@ -4884,10 +5067,10 @@
         <v>0.23</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="T61" t="n">
         <v>0.15</v>
@@ -4896,15 +5079,18 @@
         <v>0.14</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>0.17</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +5104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4926,7 +5112,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4993,13 +5179,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -5061,13 +5250,16 @@
       <c r="V2" t="n">
         <v>1153</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -5127,15 +5319,18 @@
         <v>151</v>
       </c>
       <c r="V3" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>194</v>
+      </c>
+      <c r="W3" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -5195,15 +5390,18 @@
         <v>1048</v>
       </c>
       <c r="V4" t="n">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>959</v>
+      </c>
+      <c r="W4" t="n">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -5265,13 +5463,16 @@
       <c r="V5" t="n">
         <v>930</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -5333,13 +5534,16 @@
       <c r="V6" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -5401,13 +5605,16 @@
       <c r="V7" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -5469,13 +5676,16 @@
       <c r="V8" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -5537,13 +5747,16 @@
       <c r="V9" t="n">
         <v>892</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -5605,13 +5818,16 @@
       <c r="V10" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -5673,13 +5889,16 @@
       <c r="V11" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -5741,13 +5960,16 @@
       <c r="V12" t="n">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -5809,13 +6031,16 @@
       <c r="V13" t="n">
         <v>427</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -5877,13 +6102,16 @@
       <c r="V14" t="n">
         <v>442</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -5945,37 +6173,40 @@
       <c r="V15" t="n">
         <v>284</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
         <v>158</v>
       </c>
       <c r="E16" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F16" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G16" t="n">
+        <v>149</v>
+      </c>
+      <c r="H16" t="n">
+        <v>147</v>
+      </c>
+      <c r="I16" t="n">
+        <v>142</v>
+      </c>
+      <c r="J16" t="n">
         <v>146</v>
-      </c>
-      <c r="H16" t="n">
-        <v>145</v>
-      </c>
-      <c r="I16" t="n">
-        <v>139</v>
-      </c>
-      <c r="J16" t="n">
-        <v>143</v>
       </c>
       <c r="K16" t="n">
         <v>127</v>
@@ -5987,243 +6218,255 @@
         <v>131</v>
       </c>
       <c r="N16" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O16" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R16" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S16" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T16" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U16" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V16" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>121</v>
+      </c>
+      <c r="W16" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D17" t="n">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E17" t="n">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F17" t="n">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="G17" t="n">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="H17" t="n">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="I17" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="J17" t="n">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="K17" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L17" t="n">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="M17" t="n">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="N17" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="O17" t="n">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="P17" t="n">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q17" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="R17" t="n">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="S17" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="T17" t="n">
+        <v>330</v>
+      </c>
+      <c r="U17" t="n">
+        <v>362</v>
+      </c>
+      <c r="V17" t="n">
         <v>343</v>
       </c>
-      <c r="U17" t="n">
-        <v>373</v>
-      </c>
-      <c r="V17" t="n">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D18" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E18" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F18" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G18" t="n">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H18" t="n">
         <v>457</v>
       </c>
       <c r="I18" t="n">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="J18" t="n">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K18" t="n">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="L18" t="n">
+        <v>399</v>
+      </c>
+      <c r="M18" t="n">
+        <v>401</v>
+      </c>
+      <c r="N18" t="n">
+        <v>381</v>
+      </c>
+      <c r="O18" t="n">
+        <v>400</v>
+      </c>
+      <c r="P18" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>401</v>
+      </c>
+      <c r="R18" t="n">
+        <v>417</v>
+      </c>
+      <c r="S18" t="n">
+        <v>394</v>
+      </c>
+      <c r="T18" t="n">
+        <v>386</v>
+      </c>
+      <c r="U18" t="n">
+        <v>403</v>
+      </c>
+      <c r="V18" t="n">
+        <v>394</v>
+      </c>
+      <c r="W18" t="n">
         <v>404</v>
       </c>
-      <c r="M18" t="n">
-        <v>403</v>
-      </c>
-      <c r="N18" t="n">
-        <v>383</v>
-      </c>
-      <c r="O18" t="n">
-        <v>403</v>
-      </c>
-      <c r="P18" t="n">
-        <v>412</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>400</v>
-      </c>
-      <c r="R18" t="n">
-        <v>421</v>
-      </c>
-      <c r="S18" t="n">
-        <v>395</v>
-      </c>
-      <c r="T18" t="n">
-        <v>385</v>
-      </c>
-      <c r="U18" t="n">
-        <v>406</v>
-      </c>
-      <c r="V18" t="n">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
+        <v>275</v>
+      </c>
+      <c r="D19" t="n">
+        <v>263</v>
+      </c>
+      <c r="E19" t="n">
+        <v>259</v>
+      </c>
+      <c r="F19" t="n">
+        <v>243</v>
+      </c>
+      <c r="G19" t="n">
         <v>246</v>
       </c>
-      <c r="D19" t="n">
-        <v>238</v>
-      </c>
-      <c r="E19" t="n">
-        <v>231</v>
-      </c>
-      <c r="F19" t="n">
-        <v>217</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
+        <v>223</v>
+      </c>
+      <c r="I19" t="n">
         <v>216</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
+        <v>214</v>
+      </c>
+      <c r="K19" t="n">
+        <v>220</v>
+      </c>
+      <c r="L19" t="n">
+        <v>220</v>
+      </c>
+      <c r="M19" t="n">
+        <v>208</v>
+      </c>
+      <c r="N19" t="n">
+        <v>200</v>
+      </c>
+      <c r="O19" t="n">
+        <v>209</v>
+      </c>
+      <c r="P19" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q19" t="n">
         <v>199</v>
       </c>
-      <c r="I19" t="n">
+      <c r="R19" t="n">
+        <v>206</v>
+      </c>
+      <c r="S19" t="n">
+        <v>192</v>
+      </c>
+      <c r="T19" t="n">
         <v>190</v>
       </c>
-      <c r="J19" t="n">
+      <c r="U19" t="n">
         <v>188</v>
       </c>
-      <c r="K19" t="n">
-        <v>191</v>
-      </c>
-      <c r="L19" t="n">
-        <v>194</v>
-      </c>
-      <c r="M19" t="n">
-        <v>183</v>
-      </c>
-      <c r="N19" t="n">
-        <v>175</v>
-      </c>
-      <c r="O19" t="n">
-        <v>184</v>
-      </c>
-      <c r="P19" t="n">
-        <v>194</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>180</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
+        <v>177</v>
+      </c>
+      <c r="W19" t="n">
         <v>182</v>
       </c>
-      <c r="S19" t="n">
-        <v>171</v>
-      </c>
-      <c r="T19" t="n">
-        <v>169</v>
-      </c>
-      <c r="U19" t="n">
-        <v>166</v>
-      </c>
-      <c r="V19" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -6285,13 +6528,16 @@
       <c r="V20" t="n">
         <v>339</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -6353,13 +6599,16 @@
       <c r="V21" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -6421,13 +6670,16 @@
       <c r="V22" t="n">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -6489,13 +6741,16 @@
       <c r="V23" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -6557,10 +6812,13 @@
       <c r="V24" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -6583,6 +6841,7 @@
       <c r="T25" t="s"/>
       <c r="U25" t="s"/>
       <c r="V25" t="s"/>
+      <c r="W25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -179,7 +182,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -191,7 +194,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,16 +650,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -721,16 +727,19 @@
       <c r="X2" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -795,16 +804,19 @@
       <c r="X3" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -869,16 +881,19 @@
       <c r="X4" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -943,16 +958,19 @@
       <c r="X5" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1017,16 +1035,19 @@
       <c r="X6" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1091,16 +1112,19 @@
       <c r="X7" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1165,16 +1189,19 @@
       <c r="X8" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1239,16 +1266,19 @@
       <c r="X9" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1313,16 +1343,19 @@
       <c r="X10" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1387,16 +1420,19 @@
       <c r="X11" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1461,16 +1497,19 @@
       <c r="X12" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1535,16 +1574,19 @@
       <c r="X13" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1609,16 +1651,19 @@
       <c r="X14" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1683,16 +1728,19 @@
       <c r="X15" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -1757,16 +1805,19 @@
       <c r="X16" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -1831,16 +1882,19 @@
       <c r="X17" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -1905,16 +1959,19 @@
       <c r="X18" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -1979,16 +2036,19 @@
       <c r="X19" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2053,16 +2113,19 @@
       <c r="X20" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2127,16 +2190,19 @@
       <c r="X21" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2201,16 +2267,19 @@
       <c r="X22" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2275,16 +2344,19 @@
       <c r="X23" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2349,16 +2421,19 @@
       <c r="X24" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2423,16 +2498,19 @@
       <c r="X25" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2497,16 +2575,19 @@
       <c r="X26" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2571,16 +2652,19 @@
       <c r="X27" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -2645,16 +2729,19 @@
       <c r="X28" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -2719,16 +2806,19 @@
       <c r="X29" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -2793,16 +2883,19 @@
       <c r="X30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -2867,16 +2960,19 @@
       <c r="X31" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -2941,16 +3037,19 @@
       <c r="X32" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3015,16 +3114,19 @@
       <c r="X33" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3089,16 +3191,19 @@
       <c r="X34" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3163,16 +3268,19 @@
       <c r="X35" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -3237,16 +3345,19 @@
       <c r="X36" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -3311,16 +3422,19 @@
       <c r="X37" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3385,16 +3499,19 @@
       <c r="X38" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -3459,16 +3576,19 @@
       <c r="X39" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -3533,16 +3653,19 @@
       <c r="X40" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -3607,16 +3730,19 @@
       <c r="X41" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3681,16 +3807,19 @@
       <c r="X42" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -3755,16 +3884,19 @@
       <c r="X43" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -3829,16 +3961,19 @@
       <c r="X44" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -3903,16 +4038,19 @@
       <c r="X45" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -3977,16 +4115,19 @@
       <c r="X46" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -4051,16 +4192,19 @@
       <c r="X47" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -4125,16 +4269,19 @@
       <c r="X48" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -4199,16 +4346,19 @@
       <c r="X49" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -4273,16 +4423,19 @@
       <c r="X50" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -4347,16 +4500,19 @@
       <c r="X51" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -4421,16 +4577,19 @@
       <c r="X52" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -4495,16 +4654,19 @@
       <c r="X53" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -4569,16 +4731,19 @@
       <c r="X54" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -4643,16 +4808,19 @@
       <c r="X55" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -4717,16 +4885,19 @@
       <c r="X56" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -4791,16 +4962,19 @@
       <c r="X57" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -4865,16 +5039,19 @@
       <c r="X58" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -4939,16 +5116,19 @@
       <c r="X59" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -5013,16 +5193,19 @@
       <c r="X60" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -5087,10 +5270,13 @@
       <c r="X61" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5104,7 +5290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5112,7 +5298,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5182,13 +5368,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -5253,13 +5442,16 @@
       <c r="W2" t="n">
         <v>1152</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -5324,13 +5516,16 @@
       <c r="W3" t="n">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -5395,13 +5590,16 @@
       <c r="W4" t="n">
         <v>991</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -5466,13 +5664,16 @@
       <c r="W5" t="n">
         <v>925</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -5537,13 +5738,16 @@
       <c r="W6" t="n">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -5608,13 +5812,16 @@
       <c r="W7" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -5679,13 +5886,16 @@
       <c r="W8" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -5750,13 +5960,16 @@
       <c r="W9" t="n">
         <v>890</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -5821,13 +6034,16 @@
       <c r="W10" t="n">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -5892,13 +6108,16 @@
       <c r="W11" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -5963,13 +6182,16 @@
       <c r="W12" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -6034,13 +6256,16 @@
       <c r="W13" t="n">
         <v>419</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -6105,13 +6330,16 @@
       <c r="W14" t="n">
         <v>455</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -6176,13 +6404,16 @@
       <c r="W15" t="n">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -6247,13 +6478,16 @@
       <c r="W16" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -6318,13 +6552,16 @@
       <c r="W17" t="n">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -6389,13 +6626,16 @@
       <c r="W18" t="n">
         <v>404</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -6460,13 +6700,16 @@
       <c r="W19" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -6531,13 +6774,16 @@
       <c r="W20" t="n">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -6602,13 +6848,16 @@
       <c r="W21" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -6673,13 +6922,16 @@
       <c r="W22" t="n">
         <v>311</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -6744,13 +6996,16 @@
       <c r="W23" t="n">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -6815,10 +7070,13 @@
       <c r="W24" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -6842,6 +7100,7 @@
       <c r="U25" t="s"/>
       <c r="V25" t="s"/>
       <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -182,7 +185,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -194,7 +197,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,16 +656,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -730,16 +736,19 @@
       <c r="Y2" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -807,16 +816,19 @@
       <c r="Y3" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -884,16 +896,19 @@
       <c r="Y4" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -961,16 +976,19 @@
       <c r="Y5" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1038,16 +1056,19 @@
       <c r="Y6" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1115,16 +1136,19 @@
       <c r="Y7" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1192,16 +1216,19 @@
       <c r="Y8" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1269,16 +1296,19 @@
       <c r="Y9" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1346,16 +1376,19 @@
       <c r="Y10" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1423,16 +1456,19 @@
       <c r="Y11" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1500,16 +1536,19 @@
       <c r="Y12" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1577,16 +1616,19 @@
       <c r="Y13" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1654,16 +1696,19 @@
       <c r="Y14" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1731,16 +1776,19 @@
       <c r="Y15" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -1808,16 +1856,19 @@
       <c r="Y16" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -1885,16 +1936,19 @@
       <c r="Y17" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -1962,16 +2016,19 @@
       <c r="Y18" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -2039,16 +2096,19 @@
       <c r="Y19" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2116,16 +2176,19 @@
       <c r="Y20" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2193,16 +2256,19 @@
       <c r="Y21" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2270,16 +2336,19 @@
       <c r="Y22" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2347,16 +2416,19 @@
       <c r="Y23" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2424,16 +2496,19 @@
       <c r="Y24" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2501,16 +2576,19 @@
       <c r="Y25" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2578,16 +2656,19 @@
       <c r="Y26" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2655,16 +2736,19 @@
       <c r="Y27" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -2732,16 +2816,19 @@
       <c r="Y28" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -2809,16 +2896,19 @@
       <c r="Y29" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -2886,16 +2976,19 @@
       <c r="Y30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -2963,16 +3056,19 @@
       <c r="Y31" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -3040,16 +3136,19 @@
       <c r="Y32" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3117,16 +3216,19 @@
       <c r="Y33" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3194,16 +3296,19 @@
       <c r="Y34" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3271,16 +3376,19 @@
       <c r="Y35" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -3348,16 +3456,19 @@
       <c r="Y36" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -3425,16 +3536,19 @@
       <c r="Y37" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3502,16 +3616,19 @@
       <c r="Y38" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -3579,16 +3696,19 @@
       <c r="Y39" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -3656,16 +3776,19 @@
       <c r="Y40" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -3733,16 +3856,19 @@
       <c r="Y41" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3810,16 +3936,19 @@
       <c r="Y42" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -3887,16 +4016,19 @@
       <c r="Y43" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -3964,16 +4096,19 @@
       <c r="Y44" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -4041,16 +4176,19 @@
       <c r="Y45" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -4118,16 +4256,19 @@
       <c r="Y46" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -4195,16 +4336,19 @@
       <c r="Y47" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -4272,16 +4416,19 @@
       <c r="Y48" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -4349,16 +4496,19 @@
       <c r="Y49" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -4426,16 +4576,19 @@
       <c r="Y50" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -4503,16 +4656,19 @@
       <c r="Y51" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -4580,16 +4736,19 @@
       <c r="Y52" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -4657,16 +4816,19 @@
       <c r="Y53" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -4734,16 +4896,19 @@
       <c r="Y54" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -4811,16 +4976,19 @@
       <c r="Y55" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -4888,16 +5056,19 @@
       <c r="Y56" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -4965,16 +5136,19 @@
       <c r="Y57" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -5042,16 +5216,19 @@
       <c r="Y58" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -5119,16 +5296,19 @@
       <c r="Y59" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -5196,16 +5376,19 @@
       <c r="Y60" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -5273,10 +5456,13 @@
       <c r="Y61" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5298,7 +5484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5371,13 +5557,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -5445,13 +5634,16 @@
       <c r="X2" t="n">
         <v>1156</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -5519,13 +5711,16 @@
       <c r="X3" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -5593,13 +5788,16 @@
       <c r="X4" t="n">
         <v>978</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -5667,13 +5865,16 @@
       <c r="X5" t="n">
         <v>921</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -5741,13 +5942,16 @@
       <c r="X6" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -5815,13 +6019,16 @@
       <c r="X7" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -5889,13 +6096,16 @@
       <c r="X8" t="n">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -5963,13 +6173,16 @@
       <c r="X9" t="n">
         <v>885</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -6037,13 +6250,16 @@
       <c r="X10" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -6111,13 +6327,16 @@
       <c r="X11" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -6185,13 +6404,16 @@
       <c r="X12" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -6259,13 +6481,16 @@
       <c r="X13" t="n">
         <v>423</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -6333,13 +6558,16 @@
       <c r="X14" t="n">
         <v>444</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -6407,13 +6635,16 @@
       <c r="X15" t="n">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -6481,13 +6712,16 @@
       <c r="X16" t="n">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -6555,13 +6789,16 @@
       <c r="X17" t="n">
         <v>334</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -6629,13 +6866,16 @@
       <c r="X18" t="n">
         <v>402</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -6703,13 +6943,16 @@
       <c r="X19" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -6777,13 +7020,16 @@
       <c r="X20" t="n">
         <v>322</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -6851,13 +7097,16 @@
       <c r="X21" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -6925,13 +7174,16 @@
       <c r="X22" t="n">
         <v>310</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -6999,13 +7251,16 @@
       <c r="X23" t="n">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -7073,10 +7328,13 @@
       <c r="X24" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -7101,6 +7359,7 @@
       <c r="V25" t="s"/>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -185,7 +188,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -197,7 +200,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,16 +662,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -739,16 +745,19 @@
       <c r="Z2" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -819,16 +828,19 @@
       <c r="Z3" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -899,16 +911,19 @@
       <c r="Z4" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -979,16 +994,19 @@
       <c r="Z5" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1059,16 +1077,19 @@
       <c r="Z6" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1139,16 +1160,19 @@
       <c r="Z7" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1219,16 +1243,19 @@
       <c r="Z8" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1299,16 +1326,19 @@
       <c r="Z9" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1379,16 +1409,19 @@
       <c r="Z10" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1459,16 +1492,19 @@
       <c r="Z11" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1539,16 +1575,19 @@
       <c r="Z12" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1619,16 +1658,19 @@
       <c r="Z13" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1699,16 +1741,19 @@
       <c r="Z14" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1779,16 +1824,19 @@
       <c r="Z15" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -1859,16 +1907,19 @@
       <c r="Z16" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -1939,16 +1990,19 @@
       <c r="Z17" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -2019,16 +2073,19 @@
       <c r="Z18" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -2099,16 +2156,19 @@
       <c r="Z19" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2179,16 +2239,19 @@
       <c r="Z20" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2259,16 +2322,19 @@
       <c r="Z21" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2339,16 +2405,19 @@
       <c r="Z22" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2419,16 +2488,19 @@
       <c r="Z23" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2499,16 +2571,19 @@
       <c r="Z24" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2579,16 +2654,19 @@
       <c r="Z25" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2659,16 +2737,19 @@
       <c r="Z26" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2739,16 +2820,19 @@
       <c r="Z27" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -2819,16 +2903,19 @@
       <c r="Z28" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -2899,16 +2986,19 @@
       <c r="Z29" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -2979,16 +3069,19 @@
       <c r="Z30" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -3059,16 +3152,19 @@
       <c r="Z31" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -3139,16 +3235,19 @@
       <c r="Z32" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3219,16 +3318,19 @@
       <c r="Z33" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3299,16 +3401,19 @@
       <c r="Z34" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3379,16 +3484,19 @@
       <c r="Z35" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -3459,16 +3567,19 @@
       <c r="Z36" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -3539,16 +3650,19 @@
       <c r="Z37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3619,16 +3733,19 @@
       <c r="Z38" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -3699,16 +3816,19 @@
       <c r="Z39" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -3779,16 +3899,19 @@
       <c r="Z40" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -3859,16 +3982,19 @@
       <c r="Z41" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -3939,16 +4065,19 @@
       <c r="Z42" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -4019,16 +4148,19 @@
       <c r="Z43" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -4099,16 +4231,19 @@
       <c r="Z44" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -4179,16 +4314,19 @@
       <c r="Z45" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -4259,16 +4397,19 @@
       <c r="Z46" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -4339,16 +4480,19 @@
       <c r="Z47" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -4419,16 +4563,19 @@
       <c r="Z48" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -4499,16 +4646,19 @@
       <c r="Z49" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -4579,16 +4729,19 @@
       <c r="Z50" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -4659,16 +4812,19 @@
       <c r="Z51" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -4739,16 +4895,19 @@
       <c r="Z52" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -4819,16 +4978,19 @@
       <c r="Z53" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -4899,16 +5061,19 @@
       <c r="Z54" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -4979,16 +5144,19 @@
       <c r="Z55" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -5059,16 +5227,19 @@
       <c r="Z56" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -5139,16 +5310,19 @@
       <c r="Z57" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -5219,16 +5393,19 @@
       <c r="Z58" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -5299,16 +5476,19 @@
       <c r="Z59" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -5379,16 +5559,19 @@
       <c r="Z60" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -5459,10 +5642,13 @@
       <c r="Z61" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +5662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5484,7 +5670,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5560,13 +5746,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -5637,13 +5826,16 @@
       <c r="Y2" t="n">
         <v>1160</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -5714,13 +5906,16 @@
       <c r="Y3" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -5791,13 +5986,16 @@
       <c r="Y4" t="n">
         <v>982</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -5868,13 +6066,16 @@
       <c r="Y5" t="n">
         <v>923</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -5945,13 +6146,16 @@
       <c r="Y6" t="n">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6022,13 +6226,16 @@
       <c r="Y7" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -6099,13 +6306,16 @@
       <c r="Y8" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -6176,13 +6386,16 @@
       <c r="Y9" t="n">
         <v>886</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -6253,13 +6466,16 @@
       <c r="Y10" t="n">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -6330,13 +6546,16 @@
       <c r="Y11" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -6407,13 +6626,16 @@
       <c r="Y12" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -6484,13 +6706,16 @@
       <c r="Y13" t="n">
         <v>417</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -6561,13 +6786,16 @@
       <c r="Y14" t="n">
         <v>458</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -6638,13 +6866,16 @@
       <c r="Y15" t="n">
         <v>285</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -6715,13 +6946,16 @@
       <c r="Y16" t="n">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -6792,13 +7026,16 @@
       <c r="Y17" t="n">
         <v>334</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -6869,13 +7106,16 @@
       <c r="Y18" t="n">
         <v>396</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -6946,13 +7186,16 @@
       <c r="Y19" t="n">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -7023,13 +7266,16 @@
       <c r="Y20" t="n">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -7100,13 +7346,16 @@
       <c r="Y21" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -7177,13 +7426,16 @@
       <c r="Y22" t="n">
         <v>307</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -7254,13 +7506,16 @@
       <c r="Y23" t="n">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -7331,10 +7586,13 @@
       <c r="Y24" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -7360,6 +7618,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s"/>
+      <c r="Z25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -188,7 +194,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -200,7 +206,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,16 +671,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -748,16 +760,22 @@
       <c r="AA2" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -831,16 +849,22 @@
       <c r="AA3" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -914,16 +938,22 @@
       <c r="AA4" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -997,16 +1027,22 @@
       <c r="AA5" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1080,16 +1116,22 @@
       <c r="AA6" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1163,16 +1205,22 @@
       <c r="AA7" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1246,16 +1294,22 @@
       <c r="AA8" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1329,16 +1383,22 @@
       <c r="AA9" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1412,16 +1472,22 @@
       <c r="AA10" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1495,16 +1561,22 @@
       <c r="AA11" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1578,16 +1650,22 @@
       <c r="AA12" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1661,16 +1739,22 @@
       <c r="AA13" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1744,16 +1828,22 @@
       <c r="AA14" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1827,16 +1917,22 @@
       <c r="AA15" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -1910,16 +2006,22 @@
       <c r="AA16" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -1993,16 +2095,22 @@
       <c r="AA17" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -2076,16 +2184,22 @@
       <c r="AA18" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -2159,16 +2273,22 @@
       <c r="AA19" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2242,16 +2362,22 @@
       <c r="AA20" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2325,16 +2451,22 @@
       <c r="AA21" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2408,16 +2540,22 @@
       <c r="AA22" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2491,16 +2629,22 @@
       <c r="AA23" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2574,16 +2718,22 @@
       <c r="AA24" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2657,16 +2807,22 @@
       <c r="AA25" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2740,16 +2896,22 @@
       <c r="AA26" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2823,16 +2985,22 @@
       <c r="AA27" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -2906,16 +3074,22 @@
       <c r="AA28" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -2989,16 +3163,22 @@
       <c r="AA29" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -3072,16 +3252,22 @@
       <c r="AA30" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -3155,16 +3341,22 @@
       <c r="AA31" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -3238,16 +3430,22 @@
       <c r="AA32" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3321,16 +3519,22 @@
       <c r="AA33" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3404,16 +3608,22 @@
       <c r="AA34" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3487,16 +3697,22 @@
       <c r="AA35" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -3570,16 +3786,22 @@
       <c r="AA36" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -3653,16 +3875,22 @@
       <c r="AA37" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3736,16 +3964,22 @@
       <c r="AA38" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -3819,16 +4053,22 @@
       <c r="AA39" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -3902,16 +4142,22 @@
       <c r="AA40" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -3985,16 +4231,22 @@
       <c r="AA41" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -4068,16 +4320,22 @@
       <c r="AA42" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -4151,16 +4409,22 @@
       <c r="AA43" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -4234,16 +4498,22 @@
       <c r="AA44" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -4317,16 +4587,22 @@
       <c r="AA45" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -4400,16 +4676,22 @@
       <c r="AA46" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -4483,16 +4765,22 @@
       <c r="AA47" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -4566,16 +4854,22 @@
       <c r="AA48" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -4649,16 +4943,22 @@
       <c r="AA49" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -4732,16 +5032,22 @@
       <c r="AA50" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -4815,16 +5121,22 @@
       <c r="AA51" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -4898,16 +5210,22 @@
       <c r="AA52" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -4981,16 +5299,22 @@
       <c r="AA53" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -5064,16 +5388,22 @@
       <c r="AA54" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -5147,16 +5477,22 @@
       <c r="AA55" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -5230,16 +5566,22 @@
       <c r="AA56" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -5313,16 +5655,22 @@
       <c r="AA57" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -5396,16 +5744,22 @@
       <c r="AA58" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -5479,16 +5833,22 @@
       <c r="AA59" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -5562,16 +5922,22 @@
       <c r="AA60" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -5645,10 +6011,16 @@
       <c r="AA61" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +6034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5670,7 +6042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5749,13 +6121,19 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -5829,13 +6207,19 @@
       <c r="Z2" t="n">
         <v>1142</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>1126</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -5909,13 +6293,19 @@
       <c r="Z3" t="n">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>153</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -5989,13 +6379,19 @@
       <c r="Z4" t="n">
         <v>996</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>973</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -6069,13 +6465,19 @@
       <c r="Z5" t="n">
         <v>898</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>898</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -6149,13 +6551,19 @@
       <c r="Z6" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>168</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6229,13 +6637,19 @@
       <c r="Z7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -6309,13 +6723,19 @@
       <c r="Z8" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -6389,13 +6809,19 @@
       <c r="Z9" t="n">
         <v>859</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>862</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -6469,13 +6895,19 @@
       <c r="Z10" t="n">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>153</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -6549,13 +6981,19 @@
       <c r="Z11" t="n">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -6629,13 +7067,19 @@
       <c r="Z12" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -6709,13 +7153,19 @@
       <c r="Z13" t="n">
         <v>410</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>418</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -6789,13 +7239,19 @@
       <c r="Z14" t="n">
         <v>456</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>439</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -6869,13 +7325,19 @@
       <c r="Z15" t="n">
         <v>276</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>269</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -6949,13 +7411,19 @@
       <c r="Z16" t="n">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -7029,13 +7497,19 @@
       <c r="Z17" t="n">
         <v>324</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>332</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -7109,13 +7583,19 @@
       <c r="Z18" t="n">
         <v>385</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -7189,13 +7669,19 @@
       <c r="Z19" t="n">
         <v>181</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>186</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -7269,13 +7755,19 @@
       <c r="Z20" t="n">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>312</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -7349,13 +7841,19 @@
       <c r="Z21" t="n">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -7429,13 +7927,19 @@
       <c r="Z22" t="n">
         <v>304</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -7509,13 +8013,19 @@
       <c r="Z23" t="n">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>156</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -7589,10 +8099,16 @@
       <c r="Z24" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -7619,6 +8135,8 @@
       <c r="X25" t="s"/>
       <c r="Y25" t="s"/>
       <c r="Z25" t="s"/>
+      <c r="AA25" t="s"/>
+      <c r="AB25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>trideni</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -194,7 +197,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -206,7 +209,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,16 +680,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -766,16 +772,19 @@
       <c r="AC2" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -855,16 +864,19 @@
       <c r="AC3" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -944,16 +956,19 @@
       <c r="AC4" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -1033,16 +1048,19 @@
       <c r="AC5" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1122,16 +1140,19 @@
       <c r="AC6" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1211,16 +1232,19 @@
       <c r="AC7" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1300,16 +1324,19 @@
       <c r="AC8" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1389,16 +1416,19 @@
       <c r="AC9" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1478,16 +1508,19 @@
       <c r="AC10" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1567,16 +1600,19 @@
       <c r="AC11" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1656,16 +1692,19 @@
       <c r="AC12" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1745,16 +1784,19 @@
       <c r="AC13" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1834,16 +1876,19 @@
       <c r="AC14" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1923,16 +1968,19 @@
       <c r="AC15" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -2012,16 +2060,19 @@
       <c r="AC16" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -2101,16 +2152,19 @@
       <c r="AC17" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -2190,16 +2244,19 @@
       <c r="AC18" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -2279,16 +2336,19 @@
       <c r="AC19" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2368,16 +2428,19 @@
       <c r="AC20" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2457,16 +2520,19 @@
       <c r="AC21" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2546,16 +2612,19 @@
       <c r="AC22" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2633,18 +2702,21 @@
         <v>0.35</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>0.35</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2722,18 +2794,21 @@
         <v>0.37</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>0.42</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2811,18 +2886,21 @@
         <v>0.28</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>0.23</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2902,16 +2980,19 @@
       <c r="AC26" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -2991,16 +3072,19 @@
       <c r="AC27" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -3080,16 +3164,19 @@
       <c r="AC28" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -3169,16 +3256,19 @@
       <c r="AC29" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -3258,16 +3348,19 @@
       <c r="AC30" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -3347,16 +3440,19 @@
       <c r="AC31" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -3436,16 +3532,19 @@
       <c r="AC32" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3525,16 +3624,19 @@
       <c r="AC33" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3614,16 +3716,19 @@
       <c r="AC34" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3701,18 +3806,21 @@
         <v>0.3</v>
       </c>
       <c r="AC35" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD35" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -3792,16 +3900,19 @@
       <c r="AC36" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -3879,18 +3990,21 @@
         <v>0.29</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>0.17</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -3970,16 +4084,19 @@
       <c r="AC38" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -4059,16 +4176,19 @@
       <c r="AC39" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -4148,16 +4268,19 @@
       <c r="AC40" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -4237,16 +4360,19 @@
       <c r="AC41" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -4326,16 +4452,19 @@
       <c r="AC42" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -4415,16 +4544,19 @@
       <c r="AC43" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -4502,18 +4634,21 @@
         <v>0.61</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
+        <v>0.62</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -4593,16 +4728,19 @@
       <c r="AC45" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -4680,18 +4818,21 @@
         <v>0.11</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
+        <v>0.12</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -4771,16 +4912,19 @@
       <c r="AC47" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -4860,16 +5004,19 @@
       <c r="AC48" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -4949,16 +5096,19 @@
       <c r="AC49" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -5038,16 +5188,19 @@
       <c r="AC50" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -5127,16 +5280,19 @@
       <c r="AC51" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AD51" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -5216,16 +5372,19 @@
       <c r="AC52" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AD52" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -5305,16 +5464,19 @@
       <c r="AC53" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AD53" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -5392,18 +5554,21 @@
         <v>0.35</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
+        <v>0.35</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -5481,18 +5646,21 @@
         <v>0.25</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+        <v>0.23</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -5572,16 +5740,19 @@
       <c r="AC56" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AD56" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -5659,18 +5830,21 @@
         <v>0.28</v>
       </c>
       <c r="AC57" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD57" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -5748,18 +5922,21 @@
         <v>0.11</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
+        <v>0.1</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -5839,16 +6016,19 @@
       <c r="AC59" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AD59" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -5928,16 +6108,19 @@
       <c r="AC60" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AD60" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -6017,10 +6200,13 @@
       <c r="AC61" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AD61" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6034,7 +6220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6042,7 +6228,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6127,13 +6313,16 @@
       <c r="AB1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -6211,15 +6400,18 @@
         <v>1126</v>
       </c>
       <c r="AB2" t="n">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>1105</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -6299,13 +6491,16 @@
       <c r="AB3" t="n">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -6383,15 +6578,18 @@
         <v>973</v>
       </c>
       <c r="AB4" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>959</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -6469,15 +6667,18 @@
         <v>898</v>
       </c>
       <c r="AB5" t="n">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>876</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -6557,13 +6758,16 @@
       <c r="AB6" t="n">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6643,13 +6847,16 @@
       <c r="AB7" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -6729,13 +6936,16 @@
       <c r="AB8" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -6813,15 +7023,18 @@
         <v>862</v>
       </c>
       <c r="AB9" t="n">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>837</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -6901,13 +7114,16 @@
       <c r="AB10" t="n">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -6985,15 +7201,18 @@
         <v>66</v>
       </c>
       <c r="AB11" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>69</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -7073,13 +7292,16 @@
       <c r="AB12" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -7159,13 +7381,16 @@
       <c r="AB13" t="n">
         <v>397</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -7243,15 +7468,18 @@
         <v>439</v>
       </c>
       <c r="AB14" t="n">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>436</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -7329,15 +7557,18 @@
         <v>269</v>
       </c>
       <c r="AB15" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>272</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -7415,15 +7646,18 @@
         <v>126</v>
       </c>
       <c r="AB16" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>120</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -7503,13 +7737,16 @@
       <c r="AB17" t="n">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -7589,13 +7826,16 @@
       <c r="AB18" t="n">
         <v>374</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -7673,15 +7913,18 @@
         <v>186</v>
       </c>
       <c r="AB19" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>183</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -7761,13 +8004,16 @@
       <c r="AB20" t="n">
         <v>299</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -7847,13 +8093,16 @@
       <c r="AB21" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -7931,15 +8180,18 @@
         <v>310</v>
       </c>
       <c r="AB22" t="n">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>295</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -8017,15 +8269,18 @@
         <v>156</v>
       </c>
       <c r="AB23" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>161</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -8103,12 +8358,15 @@
         <v>101</v>
       </c>
       <c r="AB24" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+        <v>104</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -8137,6 +8395,7 @@
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
       <c r="AB25" t="s"/>
+      <c r="AC25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -197,7 +200,7 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
     <t>Důchodce</t>
@@ -209,7 +212,7 @@
     <t>Nepracující</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD62"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,16 +686,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -775,16 +781,19 @@
       <c r="AD2" t="n">
         <v>0.5</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -867,16 +876,19 @@
       <c r="AD3" t="n">
         <v>0.31</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -959,16 +971,19 @@
       <c r="AD4" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -1051,16 +1066,19 @@
       <c r="AD5" t="n">
         <v>0.31</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1143,16 +1161,19 @@
       <c r="AD6" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1235,16 +1256,19 @@
       <c r="AD7" t="n">
         <v>0.41</v>
       </c>
+      <c r="AE7" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1327,16 +1351,19 @@
       <c r="AD8" t="n">
         <v>0.53</v>
       </c>
+      <c r="AE8" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1419,16 +1446,19 @@
       <c r="AD9" t="n">
         <v>0.31</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1511,16 +1541,19 @@
       <c r="AD10" t="n">
         <v>0.16</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1603,16 +1636,19 @@
       <c r="AD11" t="n">
         <v>0.52</v>
       </c>
+      <c r="AE11" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1695,16 +1731,19 @@
       <c r="AD12" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE12" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1787,16 +1826,19 @@
       <c r="AD13" t="n">
         <v>0.16</v>
       </c>
+      <c r="AE13" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1879,16 +1921,19 @@
       <c r="AD14" t="n">
         <v>0.42</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1971,16 +2016,19 @@
       <c r="AD15" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE15" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -2063,16 +2111,19 @@
       <c r="AD16" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -2155,16 +2206,19 @@
       <c r="AD17" t="n">
         <v>0.52</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -2247,16 +2301,19 @@
       <c r="AD18" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE18" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -2339,16 +2396,19 @@
       <c r="AD19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2431,16 +2491,19 @@
       <c r="AD20" t="n">
         <v>0.44</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2523,16 +2586,19 @@
       <c r="AD21" t="n">
         <v>0.27</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2615,16 +2681,19 @@
       <c r="AD22" t="n">
         <v>0.29</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2707,16 +2776,19 @@
       <c r="AD23" t="n">
         <v>0.44</v>
       </c>
+      <c r="AE23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2799,16 +2871,19 @@
       <c r="AD24" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE24" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2891,16 +2966,19 @@
       <c r="AD25" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -2983,16 +3061,19 @@
       <c r="AD26" t="n">
         <v>0.42</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -3075,16 +3156,19 @@
       <c r="AD27" t="n">
         <v>0.35</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -3167,16 +3251,19 @@
       <c r="AD28" t="n">
         <v>0.23</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -3259,16 +3346,19 @@
       <c r="AD29" t="n">
         <v>0.54</v>
       </c>
+      <c r="AE29" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -3351,16 +3441,19 @@
       <c r="AD30" t="n">
         <v>0.29</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -3443,16 +3536,19 @@
       <c r="AD31" t="n">
         <v>0.17</v>
       </c>
+      <c r="AE31" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -3535,16 +3631,19 @@
       <c r="AD32" t="n">
         <v>0.57</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3627,16 +3726,19 @@
       <c r="AD33" t="n">
         <v>0.29</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3719,16 +3821,19 @@
       <c r="AD34" t="n">
         <v>0.14</v>
       </c>
+      <c r="AE34" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3811,16 +3916,19 @@
       <c r="AD35" t="n">
         <v>0.4</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -3903,16 +4011,19 @@
       <c r="AD36" t="n">
         <v>0.33</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -3995,16 +4106,19 @@
       <c r="AD37" t="n">
         <v>0.27</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -4087,16 +4201,19 @@
       <c r="AD38" t="n">
         <v>0.43</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -4179,16 +4296,19 @@
       <c r="AD39" t="n">
         <v>0.35</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -4271,16 +4391,19 @@
       <c r="AD40" t="n">
         <v>0.22</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -4363,16 +4486,19 @@
       <c r="AD41" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -4455,16 +4581,19 @@
       <c r="AD42" t="n">
         <v>0.29</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -4547,16 +4676,19 @@
       <c r="AD43" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -4639,16 +4771,19 @@
       <c r="AD44" t="n">
         <v>0.62</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -4731,16 +4866,19 @@
       <c r="AD45" t="n">
         <v>0.26</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -4823,16 +4961,19 @@
       <c r="AD46" t="n">
         <v>0.12</v>
       </c>
+      <c r="AE46" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -4915,16 +5056,19 @@
       <c r="AD47" t="n">
         <v>0.45</v>
       </c>
+      <c r="AE47" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -5007,16 +5151,19 @@
       <c r="AD48" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE48" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -5099,16 +5246,19 @@
       <c r="AD49" t="n">
         <v>0.25</v>
       </c>
+      <c r="AE49" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -5191,16 +5341,19 @@
       <c r="AD50" t="n">
         <v>0.67</v>
       </c>
+      <c r="AE50" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -5283,16 +5436,19 @@
       <c r="AD51" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE51" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -5375,16 +5531,19 @@
       <c r="AD52" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -5467,16 +5626,19 @@
       <c r="AD53" t="n">
         <v>0.42</v>
       </c>
+      <c r="AE53" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -5559,16 +5721,19 @@
       <c r="AD54" t="n">
         <v>0.37</v>
       </c>
+      <c r="AE54" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -5651,16 +5816,19 @@
       <c r="AD55" t="n">
         <v>0.21</v>
       </c>
+      <c r="AE55" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -5743,16 +5911,19 @@
       <c r="AD56" t="n">
         <v>0.67</v>
       </c>
+      <c r="AE56" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -5835,16 +6006,19 @@
       <c r="AD57" t="n">
         <v>0.25</v>
       </c>
+      <c r="AE57" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -5927,16 +6101,19 @@
       <c r="AD58" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE58" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -6019,16 +6196,19 @@
       <c r="AD59" t="n">
         <v>0.61</v>
       </c>
+      <c r="AE59" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -6111,16 +6291,19 @@
       <c r="AD60" t="n">
         <v>0.24</v>
       </c>
+      <c r="AE60" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -6203,10 +6386,13 @@
       <c r="AD61" t="n">
         <v>0.15</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6228,7 +6414,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6316,13 +6502,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -6405,13 +6594,16 @@
       <c r="AC2" t="n">
         <v>1078</v>
       </c>
+      <c r="AD2" t="n">
+        <v>1059</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -6494,13 +6686,16 @@
       <c r="AC3" t="n">
         <v>127</v>
       </c>
+      <c r="AD3" t="n">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -6583,13 +6778,16 @@
       <c r="AC4" t="n">
         <v>951</v>
       </c>
+      <c r="AD4" t="n">
+        <v>964</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -6672,13 +6870,16 @@
       <c r="AC5" t="n">
         <v>854</v>
       </c>
+      <c r="AD5" t="n">
+        <v>832</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -6761,13 +6962,16 @@
       <c r="AC6" t="n">
         <v>157</v>
       </c>
+      <c r="AD6" t="n">
+        <v>157</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6850,13 +7054,16 @@
       <c r="AC7" t="n">
         <v>13</v>
       </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -6939,13 +7146,16 @@
       <c r="AC8" t="n">
         <v>54</v>
       </c>
+      <c r="AD8" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -7028,13 +7238,16 @@
       <c r="AC9" t="n">
         <v>814</v>
       </c>
+      <c r="AD9" t="n">
+        <v>793</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -7117,13 +7330,16 @@
       <c r="AC10" t="n">
         <v>145</v>
       </c>
+      <c r="AD10" t="n">
+        <v>146</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -7206,13 +7422,16 @@
       <c r="AC11" t="n">
         <v>67</v>
       </c>
+      <c r="AD11" t="n">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -7295,13 +7514,16 @@
       <c r="AC12" t="n">
         <v>53</v>
       </c>
+      <c r="AD12" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -7384,13 +7606,16 @@
       <c r="AC13" t="n">
         <v>395</v>
       </c>
+      <c r="AD13" t="n">
+        <v>385</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -7473,13 +7698,16 @@
       <c r="AC14" t="n">
         <v>426</v>
       </c>
+      <c r="AD14" t="n">
+        <v>422</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -7562,13 +7790,16 @@
       <c r="AC15" t="n">
         <v>257</v>
       </c>
+      <c r="AD15" t="n">
+        <v>252</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -7651,13 +7882,16 @@
       <c r="AC16" t="n">
         <v>115</v>
       </c>
+      <c r="AD16" t="n">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -7740,13 +7974,16 @@
       <c r="AC17" t="n">
         <v>325</v>
       </c>
+      <c r="AD17" t="n">
+        <v>313</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -7829,13 +8066,16 @@
       <c r="AC18" t="n">
         <v>370</v>
       </c>
+      <c r="AD18" t="n">
+        <v>363</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -7918,13 +8158,16 @@
       <c r="AC19" t="n">
         <v>162</v>
       </c>
+      <c r="AD19" t="n">
+        <v>166</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -8007,13 +8250,16 @@
       <c r="AC20" t="n">
         <v>299</v>
       </c>
+      <c r="AD20" t="n">
+        <v>302</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -8096,13 +8342,16 @@
       <c r="AC21" t="n">
         <v>96</v>
       </c>
+      <c r="AD21" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -8185,13 +8434,16 @@
       <c r="AC22" t="n">
         <v>289</v>
       </c>
+      <c r="AD22" t="n">
+        <v>268</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -8274,13 +8526,16 @@
       <c r="AC23" t="n">
         <v>158</v>
       </c>
+      <c r="AD23" t="n">
+        <v>144</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -8363,10 +8618,13 @@
       <c r="AC24" t="n">
         <v>89</v>
       </c>
+      <c r="AD24" t="n">
+        <v>95</v>
+      </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -8396,6 +8654,7 @@
       <c r="AA25" t="s"/>
       <c r="AB25" t="s"/>
       <c r="AC25" t="s"/>
+      <c r="AD25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,209 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné obavy</t>
-  </si>
-  <si>
-    <t>Velké obavy</t>
-  </si>
-  <si>
-    <t>Destabilizace práce</t>
-  </si>
-  <si>
-    <t>Došlo k omezení pracovní aktivity či příjmů</t>
-  </si>
-  <si>
-    <t>Nedošlo k omezení pracovní aktivity či příjmů</t>
-  </si>
-  <si>
-    <t>Pracovní status před krizí</t>
-  </si>
-  <si>
-    <t>Zaměstnanec</t>
-  </si>
-  <si>
-    <t>OSVČ</t>
-  </si>
-  <si>
-    <t>Forma práce před krizí</t>
-  </si>
-  <si>
-    <t>Jen zaměstnanecká smlouva</t>
-  </si>
-  <si>
-    <t>Fakturující – OSVČ</t>
-  </si>
-  <si>
-    <t>Dohodáři a s příjmy na černo</t>
-  </si>
-  <si>
-    <t>Vzdělání</t>
-  </si>
-  <si>
-    <t>ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>Příjem domácnosti před krizí</t>
-  </si>
-  <si>
-    <t>Pod hranicí chudoby</t>
-  </si>
-  <si>
-    <t>Nízkopříjmová</t>
-  </si>
-  <si>
-    <t>Nadstandardně příjmová</t>
-  </si>
-  <si>
-    <t>Vysokopříjmová</t>
-  </si>
-  <si>
-    <t>Obor práce</t>
-  </si>
-  <si>
-    <t>Obchod a služby</t>
-  </si>
-  <si>
-    <t>IT a finance</t>
-  </si>
-  <si>
-    <t>Průmysl a zemědělství</t>
-  </si>
-  <si>
-    <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
-  </si>
-  <si>
-    <t>Školství a kultura</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Důchodce</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Nepracující</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -587,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE62"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,110 +459,183 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -784,16 +721,25 @@
       <c r="AE2" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.19</v>
@@ -879,16 +825,25 @@
       <c r="AE3" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.27</v>
@@ -974,16 +929,25 @@
       <c r="AE4" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Došlo k omezení pracovní aktivity či příjmů</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.42</v>
@@ -1069,16 +1033,25 @@
       <c r="AE5" t="n">
         <v>0.3</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Došlo k omezení pracovní aktivity či příjmů</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -1164,16 +1137,25 @@
       <c r="AE6" t="n">
         <v>0.35</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Došlo k omezení pracovní aktivity či příjmů</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1259,16 +1241,25 @@
       <c r="AE7" t="n">
         <v>0.35</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nedošlo k omezení pracovní aktivity či příjmů</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.57</v>
@@ -1354,16 +1345,25 @@
       <c r="AE8" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nedošlo k omezení pracovní aktivity či příjmů</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.18</v>
@@ -1449,16 +1449,25 @@
       <c r="AE9" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nedošlo k omezení pracovní aktivity či příjmů</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -1544,16 +1553,25 @@
       <c r="AE10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.5600000000000001</v>
@@ -1639,16 +1657,25 @@
       <c r="AE11" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1734,16 +1761,25 @@
       <c r="AE12" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -1829,16 +1865,25 @@
       <c r="AE13" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.43</v>
@@ -1924,16 +1969,25 @@
       <c r="AE14" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -2019,16 +2073,25 @@
       <c r="AE15" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.39</v>
@@ -2114,16 +2177,25 @@
       <c r="AE16" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.57</v>
@@ -2209,16 +2281,25 @@
       <c r="AE17" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -2304,16 +2385,25 @@
       <c r="AE18" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.24</v>
@@ -2399,16 +2489,25 @@
       <c r="AE19" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.42</v>
@@ -2494,16 +2593,25 @@
       <c r="AE20" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.18</v>
@@ -2589,16 +2697,25 @@
       <c r="AE21" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.4</v>
@@ -2684,16 +2801,25 @@
       <c r="AE22" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.37</v>
@@ -2779,16 +2905,25 @@
       <c r="AE23" t="n">
         <v>0.5</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.19</v>
@@ -2874,16 +3009,25 @@
       <c r="AE24" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.44</v>
@@ -2969,16 +3113,25 @@
       <c r="AE25" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.47</v>
@@ -3064,16 +3217,25 @@
       <c r="AE26" t="n">
         <v>0.48</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.22</v>
@@ -3159,16 +3321,25 @@
       <c r="AE27" t="n">
         <v>0.35</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.31</v>
@@ -3254,16 +3425,25 @@
       <c r="AE28" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.53</v>
@@ -3349,16 +3529,25 @@
       <c r="AE29" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.19</v>
@@ -3444,16 +3633,25 @@
       <c r="AE30" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.28</v>
@@ -3539,16 +3737,25 @@
       <c r="AE31" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.65</v>
@@ -3634,16 +3841,25 @@
       <c r="AE32" t="n">
         <v>0.58</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.15</v>
@@ -3729,16 +3945,25 @@
       <c r="AE33" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.2</v>
@@ -3824,16 +4049,25 @@
       <c r="AE34" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.38</v>
@@ -3919,16 +4153,25 @@
       <c r="AE35" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.31</v>
@@ -4014,16 +4257,25 @@
       <c r="AE36" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
@@ -4109,16 +4361,25 @@
       <c r="AE37" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.48</v>
@@ -4204,16 +4465,25 @@
       <c r="AE38" t="n">
         <v>0.45</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.19</v>
@@ -4299,16 +4569,25 @@
       <c r="AE39" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.33</v>
@@ -4394,16 +4673,25 @@
       <c r="AE40" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
@@ -4489,16 +4777,25 @@
       <c r="AE41" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.17</v>
@@ -4584,16 +4881,25 @@
       <c r="AE42" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -4679,16 +4985,25 @@
       <c r="AE43" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.59</v>
@@ -4774,16 +5089,25 @@
       <c r="AE44" t="n">
         <v>0.64</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.14</v>
@@ -4869,16 +5193,25 @@
       <c r="AE45" t="n">
         <v>0.3</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.27</v>
@@ -4964,16 +5297,25 @@
       <c r="AE46" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.46</v>
@@ -5059,16 +5401,25 @@
       <c r="AE47" t="n">
         <v>0.48</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.18</v>
@@ -5154,16 +5505,25 @@
       <c r="AE48" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.36</v>
@@ -5249,16 +5609,25 @@
       <c r="AE49" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>33</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.63</v>
@@ -5344,16 +5713,25 @@
       <c r="AE50" t="n">
         <v>0.68</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.17</v>
@@ -5439,16 +5817,25 @@
       <c r="AE51" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>35</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.2</v>
@@ -5534,16 +5921,25 @@
       <c r="AE52" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>33</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.51</v>
@@ -5629,16 +6025,25 @@
       <c r="AE53" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.21</v>
@@ -5724,16 +6129,25 @@
       <c r="AE54" t="n">
         <v>0.35</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.28</v>
@@ -5819,16 +6233,25 @@
       <c r="AE55" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.71</v>
@@ -5914,16 +6337,25 @@
       <c r="AE56" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.16</v>
@@ -6009,16 +6441,25 @@
       <c r="AE57" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.13</v>
@@ -6104,16 +6545,25 @@
       <c r="AE58" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>33</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.63</v>
@@ -6199,16 +6649,25 @@
       <c r="AE59" t="n">
         <v>0.59</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Částečné obavy</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.17</v>
@@ -6294,16 +6753,25 @@
       <c r="AE60" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Velké obavy</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.2</v>
@@ -6389,14 +6857,19 @@
       <c r="AE61" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
-      <c r="A62" t="s">
-        <v>61</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6406,7 +6879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,104 +6887,173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1513</v>
@@ -6597,13 +7139,20 @@
       <c r="AD2" t="n">
         <v>1059</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Došlo k omezení pracovní aktivity či příjmů</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>331</v>
@@ -6689,13 +7238,20 @@
       <c r="AD3" t="n">
         <v>95</v>
       </c>
+      <c r="AE3" t="n">
+        <v>88</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Destabilizace práce</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nedošlo k omezení pracovní aktivity či příjmů</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1182</v>
@@ -6781,13 +7337,20 @@
       <c r="AD4" t="n">
         <v>964</v>
       </c>
+      <c r="AE4" t="n">
+        <v>920</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1235</v>
@@ -6873,13 +7436,20 @@
       <c r="AD5" t="n">
         <v>832</v>
       </c>
+      <c r="AE5" t="n">
+        <v>786</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>253</v>
@@ -6965,13 +7535,20 @@
       <c r="AD6" t="n">
         <v>157</v>
       </c>
+      <c r="AE6" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -7057,13 +7634,20 @@
       <c r="AD7" t="n">
         <v>13</v>
       </c>
+      <c r="AE7" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>22</v>
@@ -7149,13 +7733,20 @@
       <c r="AD8" t="n">
         <v>57</v>
       </c>
+      <c r="AE8" t="n">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>1181</v>
@@ -7241,13 +7832,20 @@
       <c r="AD9" t="n">
         <v>793</v>
       </c>
+      <c r="AE9" t="n">
+        <v>747</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>239</v>
@@ -7333,13 +7931,20 @@
       <c r="AD10" t="n">
         <v>146</v>
       </c>
+      <c r="AE10" t="n">
+        <v>130</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -7425,13 +8030,20 @@
       <c r="AD11" t="n">
         <v>65</v>
       </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>21</v>
@@ -7517,13 +8129,20 @@
       <c r="AD12" t="n">
         <v>55</v>
       </c>
+      <c r="AE12" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>544</v>
@@ -7609,13 +8228,20 @@
       <c r="AD13" t="n">
         <v>385</v>
       </c>
+      <c r="AE13" t="n">
+        <v>366</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>587</v>
@@ -7701,13 +8327,20 @@
       <c r="AD14" t="n">
         <v>422</v>
       </c>
+      <c r="AE14" t="n">
+        <v>401</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>382</v>
@@ -7793,13 +8426,20 @@
       <c r="AD15" t="n">
         <v>252</v>
       </c>
+      <c r="AE15" t="n">
+        <v>241</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>161</v>
@@ -7885,13 +8525,20 @@
       <c r="AD16" t="n">
         <v>114</v>
       </c>
+      <c r="AE16" t="n">
+        <v>113</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>449</v>
@@ -7977,13 +8624,20 @@
       <c r="AD17" t="n">
         <v>313</v>
       </c>
+      <c r="AE17" t="n">
+        <v>299</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>497</v>
@@ -8069,13 +8723,20 @@
       <c r="AD18" t="n">
         <v>363</v>
       </c>
+      <c r="AE18" t="n">
+        <v>347</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>275</v>
@@ -8161,13 +8822,20 @@
       <c r="AD19" t="n">
         <v>166</v>
       </c>
+      <c r="AE19" t="n">
+        <v>153</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>442</v>
@@ -8253,13 +8921,20 @@
       <c r="AD20" t="n">
         <v>302</v>
       </c>
+      <c r="AE20" t="n">
+        <v>291</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>121</v>
@@ -8345,13 +9020,20 @@
       <c r="AD21" t="n">
         <v>99</v>
       </c>
+      <c r="AE21" t="n">
+        <v>92</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>428</v>
@@ -8437,13 +9119,20 @@
       <c r="AD22" t="n">
         <v>268</v>
       </c>
+      <c r="AE22" t="n">
+        <v>259</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>236</v>
@@ -8529,13 +9218,20 @@
       <c r="AD23" t="n">
         <v>144</v>
       </c>
+      <c r="AE23" t="n">
+        <v>135</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>128</v>
@@ -8621,42 +9317,48 @@
       <c r="AD24" t="n">
         <v>95</v>
       </c>
+      <c r="AE24" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
-      <c r="D25" t="s"/>
-      <c r="E25" t="s"/>
-      <c r="F25" t="s"/>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="s"/>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
-      <c r="Z25" t="s"/>
-      <c r="AA25" t="s"/>
-      <c r="AB25" t="s"/>
-      <c r="AC25" t="s"/>
-      <c r="AD25" t="s"/>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -724,6 +729,9 @@
       <c r="AF2" t="n">
         <v>0.53</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -828,6 +836,9 @@
       <c r="AF3" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -932,6 +943,9 @@
       <c r="AF4" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1036,6 +1050,9 @@
       <c r="AF5" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1140,6 +1157,9 @@
       <c r="AF6" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1244,6 +1264,9 @@
       <c r="AF7" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1348,6 +1371,9 @@
       <c r="AF8" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1452,6 +1478,9 @@
       <c r="AF9" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1556,6 +1585,9 @@
       <c r="AF10" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1660,6 +1692,9 @@
       <c r="AF11" t="n">
         <v>0.54</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1764,6 +1799,9 @@
       <c r="AF12" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1868,6 +1906,9 @@
       <c r="AF13" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1972,6 +2013,9 @@
       <c r="AF14" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2076,6 +2120,9 @@
       <c r="AF15" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2180,6 +2227,9 @@
       <c r="AF16" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2284,6 +2334,9 @@
       <c r="AF17" t="n">
         <v>0.54</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2388,6 +2441,9 @@
       <c r="AF18" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2492,6 +2548,9 @@
       <c r="AF19" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2596,6 +2655,9 @@
       <c r="AF20" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2700,6 +2762,9 @@
       <c r="AF21" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2804,6 +2869,9 @@
       <c r="AF22" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2908,6 +2976,9 @@
       <c r="AF23" t="n">
         <v>0.57</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3012,6 +3083,9 @@
       <c r="AF24" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3116,6 +3190,9 @@
       <c r="AF25" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3220,6 +3297,9 @@
       <c r="AF26" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3324,6 +3404,9 @@
       <c r="AF27" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3428,6 +3511,9 @@
       <c r="AF28" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3532,6 +3618,9 @@
       <c r="AF29" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3636,6 +3725,9 @@
       <c r="AF30" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3740,6 +3832,9 @@
       <c r="AF31" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3844,6 +3939,9 @@
       <c r="AF32" t="n">
         <v>0.64</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3948,6 +4046,9 @@
       <c r="AF33" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4052,6 +4153,9 @@
       <c r="AF34" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4156,6 +4260,9 @@
       <c r="AF35" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4260,6 +4367,9 @@
       <c r="AF36" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4364,6 +4474,9 @@
       <c r="AF37" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4468,6 +4581,9 @@
       <c r="AF38" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4572,6 +4688,9 @@
       <c r="AF39" t="n">
         <v>0.39</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4676,6 +4795,9 @@
       <c r="AF40" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4780,6 +4902,9 @@
       <c r="AF41" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4884,6 +5009,9 @@
       <c r="AF42" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4988,6 +5116,9 @@
       <c r="AF43" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5092,6 +5223,9 @@
       <c r="AF44" t="n">
         <v>0.66</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5196,6 +5330,9 @@
       <c r="AF45" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5300,6 +5437,9 @@
       <c r="AF46" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5404,6 +5544,9 @@
       <c r="AF47" t="n">
         <v>0.5</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5508,6 +5651,9 @@
       <c r="AF48" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5612,6 +5758,9 @@
       <c r="AF49" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5716,6 +5865,9 @@
       <c r="AF50" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5820,6 +5972,9 @@
       <c r="AF51" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5924,6 +6079,9 @@
       <c r="AF52" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6028,6 +6186,9 @@
       <c r="AF53" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6132,6 +6293,9 @@
       <c r="AF54" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6236,6 +6400,9 @@
       <c r="AF55" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6340,6 +6507,9 @@
       <c r="AF56" t="n">
         <v>0.67</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6444,6 +6614,9 @@
       <c r="AF57" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6548,6 +6721,9 @@
       <c r="AF58" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6652,6 +6828,9 @@
       <c r="AF59" t="n">
         <v>0.68</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6756,6 +6935,9 @@
       <c r="AF60" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6860,11 +7042,14 @@
       <c r="AF61" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -6879,7 +7064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7043,6 +7228,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7142,6 +7332,9 @@
       <c r="AE2" t="n">
         <v>1008</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7241,6 +7434,9 @@
       <c r="AE3" t="n">
         <v>88</v>
       </c>
+      <c r="AF3" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7340,6 +7536,9 @@
       <c r="AE4" t="n">
         <v>920</v>
       </c>
+      <c r="AF4" t="n">
+        <v>980</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7439,6 +7638,9 @@
       <c r="AE5" t="n">
         <v>786</v>
       </c>
+      <c r="AF5" t="n">
+        <v>837</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7538,6 +7740,9 @@
       <c r="AE6" t="n">
         <v>143</v>
       </c>
+      <c r="AF6" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7637,6 +7842,9 @@
       <c r="AE7" t="n">
         <v>8</v>
       </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7736,6 +7944,9 @@
       <c r="AE8" t="n">
         <v>71</v>
       </c>
+      <c r="AF8" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7835,6 +8046,9 @@
       <c r="AE9" t="n">
         <v>747</v>
       </c>
+      <c r="AF9" t="n">
+        <v>799</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7934,6 +8148,9 @@
       <c r="AE10" t="n">
         <v>130</v>
       </c>
+      <c r="AF10" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8033,6 +8250,9 @@
       <c r="AE11" t="n">
         <v>75</v>
       </c>
+      <c r="AF11" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8132,6 +8352,9 @@
       <c r="AE12" t="n">
         <v>56</v>
       </c>
+      <c r="AF12" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8231,6 +8454,9 @@
       <c r="AE13" t="n">
         <v>366</v>
       </c>
+      <c r="AF13" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8330,6 +8556,9 @@
       <c r="AE14" t="n">
         <v>401</v>
       </c>
+      <c r="AF14" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8429,6 +8658,9 @@
       <c r="AE15" t="n">
         <v>241</v>
       </c>
+      <c r="AF15" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8528,6 +8760,9 @@
       <c r="AE16" t="n">
         <v>113</v>
       </c>
+      <c r="AF16" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8627,6 +8862,9 @@
       <c r="AE17" t="n">
         <v>299</v>
       </c>
+      <c r="AF17" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8726,6 +8964,9 @@
       <c r="AE18" t="n">
         <v>347</v>
       </c>
+      <c r="AF18" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8825,6 +9066,9 @@
       <c r="AE19" t="n">
         <v>153</v>
       </c>
+      <c r="AF19" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8924,6 +9168,9 @@
       <c r="AE20" t="n">
         <v>291</v>
       </c>
+      <c r="AF20" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9023,6 +9270,9 @@
       <c r="AE21" t="n">
         <v>92</v>
       </c>
+      <c r="AF21" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9122,6 +9372,9 @@
       <c r="AE22" t="n">
         <v>259</v>
       </c>
+      <c r="AF22" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9221,6 +9474,9 @@
       <c r="AE23" t="n">
         <v>135</v>
       </c>
+      <c r="AF23" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9320,11 +9576,14 @@
       <c r="AE24" t="n">
         <v>91</v>
       </c>
+      <c r="AF24" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -9357,6 +9616,7 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG62"/>
+  <dimension ref="A1:AH62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.37</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.62</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.66</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,11 +7227,14 @@
       <c r="AG61" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7233,6 +7418,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7335,6 +7525,9 @@
       <c r="AF2" t="n">
         <v>1073</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1043</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7437,6 +7630,9 @@
       <c r="AF3" t="n">
         <v>93</v>
       </c>
+      <c r="AG3" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7539,6 +7735,9 @@
       <c r="AF4" t="n">
         <v>980</v>
       </c>
+      <c r="AG4" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7641,6 +7840,9 @@
       <c r="AF5" t="n">
         <v>837</v>
       </c>
+      <c r="AG5" t="n">
+        <v>814</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7743,6 +7945,9 @@
       <c r="AF6" t="n">
         <v>152</v>
       </c>
+      <c r="AG6" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7845,6 +8050,9 @@
       <c r="AF7" t="n">
         <v>10</v>
       </c>
+      <c r="AG7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7947,6 +8155,9 @@
       <c r="AF8" t="n">
         <v>74</v>
       </c>
+      <c r="AG8" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8049,6 +8260,9 @@
       <c r="AF9" t="n">
         <v>799</v>
       </c>
+      <c r="AG9" t="n">
+        <v>782</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8151,6 +8365,9 @@
       <c r="AF10" t="n">
         <v>142</v>
       </c>
+      <c r="AG10" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8253,6 +8470,9 @@
       <c r="AF11" t="n">
         <v>64</v>
       </c>
+      <c r="AG11" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8355,6 +8575,9 @@
       <c r="AF12" t="n">
         <v>68</v>
       </c>
+      <c r="AG12" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8457,6 +8680,9 @@
       <c r="AF13" t="n">
         <v>387</v>
       </c>
+      <c r="AG13" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8559,6 +8785,9 @@
       <c r="AF14" t="n">
         <v>436</v>
       </c>
+      <c r="AG14" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8661,6 +8890,9 @@
       <c r="AF15" t="n">
         <v>250</v>
       </c>
+      <c r="AG15" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8763,6 +8995,9 @@
       <c r="AF16" t="n">
         <v>121</v>
       </c>
+      <c r="AG16" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8865,6 +9100,9 @@
       <c r="AF17" t="n">
         <v>335</v>
       </c>
+      <c r="AG17" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8967,6 +9205,9 @@
       <c r="AF18" t="n">
         <v>332</v>
       </c>
+      <c r="AG18" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9069,6 +9310,9 @@
       <c r="AF19" t="n">
         <v>180</v>
       </c>
+      <c r="AG19" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9171,6 +9415,9 @@
       <c r="AF20" t="n">
         <v>293</v>
       </c>
+      <c r="AG20" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9273,6 +9520,9 @@
       <c r="AF21" t="n">
         <v>91</v>
       </c>
+      <c r="AG21" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9375,6 +9625,9 @@
       <c r="AF22" t="n">
         <v>292</v>
       </c>
+      <c r="AG22" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9477,6 +9730,9 @@
       <c r="AF23" t="n">
         <v>158</v>
       </c>
+      <c r="AG23" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9579,11 +9835,14 @@
       <c r="AF24" t="n">
         <v>85</v>
       </c>
+      <c r="AG24" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -9617,6 +9876,7 @@
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH62"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.54</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.5</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.33</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.55</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.64</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.67</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.62</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.71</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,11 +7412,14 @@
       <c r="AH61" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7423,6 +7608,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7528,6 +7718,9 @@
       <c r="AG2" t="n">
         <v>1043</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1041</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7633,6 +7826,9 @@
       <c r="AG3" t="n">
         <v>88</v>
       </c>
+      <c r="AH3" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7738,6 +7934,9 @@
       <c r="AG4" t="n">
         <v>955</v>
       </c>
+      <c r="AH4" t="n">
+        <v>963</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7843,6 +8042,9 @@
       <c r="AG5" t="n">
         <v>814</v>
       </c>
+      <c r="AH5" t="n">
+        <v>810</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7948,6 +8150,9 @@
       <c r="AG6" t="n">
         <v>155</v>
       </c>
+      <c r="AH6" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8053,6 +8258,9 @@
       <c r="AG7" t="n">
         <v>7</v>
       </c>
+      <c r="AH7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8158,6 +8366,9 @@
       <c r="AG8" t="n">
         <v>67</v>
       </c>
+      <c r="AH8" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8263,6 +8474,9 @@
       <c r="AG9" t="n">
         <v>782</v>
       </c>
+      <c r="AH9" t="n">
+        <v>778</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8368,6 +8582,9 @@
       <c r="AG10" t="n">
         <v>143</v>
       </c>
+      <c r="AH10" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8473,6 +8690,9 @@
       <c r="AG11" t="n">
         <v>59</v>
       </c>
+      <c r="AH11" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8578,6 +8798,9 @@
       <c r="AG12" t="n">
         <v>59</v>
       </c>
+      <c r="AH12" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8683,6 +8906,9 @@
       <c r="AG13" t="n">
         <v>396</v>
       </c>
+      <c r="AH13" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8788,6 +9014,9 @@
       <c r="AG14" t="n">
         <v>403</v>
       </c>
+      <c r="AH14" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8893,6 +9122,9 @@
       <c r="AG15" t="n">
         <v>244</v>
       </c>
+      <c r="AH15" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8998,6 +9230,9 @@
       <c r="AG16" t="n">
         <v>114</v>
       </c>
+      <c r="AH16" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9103,6 +9338,9 @@
       <c r="AG17" t="n">
         <v>305</v>
       </c>
+      <c r="AH17" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9208,6 +9446,9 @@
       <c r="AG18" t="n">
         <v>357</v>
       </c>
+      <c r="AH18" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9313,6 +9554,9 @@
       <c r="AG19" t="n">
         <v>162</v>
       </c>
+      <c r="AH19" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9418,6 +9662,9 @@
       <c r="AG20" t="n">
         <v>290</v>
       </c>
+      <c r="AH20" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9523,6 +9770,9 @@
       <c r="AG21" t="n">
         <v>100</v>
       </c>
+      <c r="AH21" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9628,6 +9878,9 @@
       <c r="AG22" t="n">
         <v>269</v>
       </c>
+      <c r="AH22" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9733,6 +9986,9 @@
       <c r="AG23" t="n">
         <v>144</v>
       </c>
+      <c r="AH23" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9838,11 +10094,14 @@
       <c r="AG24" t="n">
         <v>92</v>
       </c>
+      <c r="AH24" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -9877,6 +10136,7 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.53</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.6</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.51</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.68</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,6 +7249,9 @@
       <c r="AI58" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7189,6 +7365,9 @@
       <c r="AI59" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7302,6 +7481,9 @@
       <c r="AI60" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7415,11 +7597,14 @@
       <c r="AI61" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7613,6 +7798,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7721,6 +7911,9 @@
       <c r="AH2" t="n">
         <v>1041</v>
       </c>
+      <c r="AI2" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7829,6 +8022,9 @@
       <c r="AH3" t="n">
         <v>78</v>
       </c>
+      <c r="AI3" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7937,6 +8133,9 @@
       <c r="AH4" t="n">
         <v>963</v>
       </c>
+      <c r="AI4" t="n">
+        <v>867</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8045,6 +8244,9 @@
       <c r="AH5" t="n">
         <v>810</v>
       </c>
+      <c r="AI5" t="n">
+        <v>744</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8153,6 +8355,9 @@
       <c r="AH6" t="n">
         <v>154</v>
       </c>
+      <c r="AI6" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8261,6 +8466,9 @@
       <c r="AH7" t="n">
         <v>6</v>
       </c>
+      <c r="AI7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8369,6 +8577,9 @@
       <c r="AH8" t="n">
         <v>71</v>
       </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8477,6 +8688,9 @@
       <c r="AH9" t="n">
         <v>778</v>
       </c>
+      <c r="AI9" t="n">
+        <v>711</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8585,6 +8799,9 @@
       <c r="AH10" t="n">
         <v>144</v>
       </c>
+      <c r="AI10" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8693,6 +8910,9 @@
       <c r="AH11" t="n">
         <v>65</v>
       </c>
+      <c r="AI11" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8801,6 +9021,9 @@
       <c r="AH12" t="n">
         <v>54</v>
       </c>
+      <c r="AI12" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8909,6 +9132,9 @@
       <c r="AH13" t="n">
         <v>390</v>
       </c>
+      <c r="AI13" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9017,6 +9243,9 @@
       <c r="AH14" t="n">
         <v>411</v>
       </c>
+      <c r="AI14" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9125,6 +9354,9 @@
       <c r="AH15" t="n">
         <v>240</v>
       </c>
+      <c r="AI15" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9233,6 +9465,9 @@
       <c r="AH16" t="n">
         <v>127</v>
       </c>
+      <c r="AI16" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9341,6 +9576,9 @@
       <c r="AH17" t="n">
         <v>301</v>
       </c>
+      <c r="AI17" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9449,6 +9687,9 @@
       <c r="AH18" t="n">
         <v>333</v>
       </c>
+      <c r="AI18" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9557,6 +9798,9 @@
       <c r="AH19" t="n">
         <v>170</v>
       </c>
+      <c r="AI19" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9665,6 +9909,9 @@
       <c r="AH20" t="n">
         <v>304</v>
       </c>
+      <c r="AI20" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9773,6 +10020,9 @@
       <c r="AH21" t="n">
         <v>101</v>
       </c>
+      <c r="AI21" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9881,6 +10131,9 @@
       <c r="AH22" t="n">
         <v>258</v>
       </c>
+      <c r="AI22" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9989,6 +10242,9 @@
       <c r="AH23" t="n">
         <v>150</v>
       </c>
+      <c r="AI23" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10097,11 +10353,14 @@
       <c r="AH24" t="n">
         <v>85</v>
       </c>
+      <c r="AI24" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -10137,6 +10396,7 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,9 @@
       <c r="AJ2" t="n">
         <v>0.53</v>
       </c>
+      <c r="AK2" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -872,6 +880,9 @@
       <c r="AJ3" t="n">
         <v>0.31</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -988,6 +999,9 @@
       <c r="AJ4" t="n">
         <v>0.16</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1104,6 +1118,9 @@
       <c r="AJ5" t="n">
         <v>0.34</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1237,9 @@
       <c r="AJ6" t="n">
         <v>0.21</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1336,6 +1356,9 @@
       <c r="AJ7" t="n">
         <v>0.45</v>
       </c>
+      <c r="AK7" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1452,6 +1475,9 @@
       <c r="AJ8" t="n">
         <v>0.55</v>
       </c>
+      <c r="AK8" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1568,6 +1594,9 @@
       <c r="AJ9" t="n">
         <v>0.32</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1684,6 +1713,9 @@
       <c r="AJ10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1800,6 +1832,9 @@
       <c r="AJ11" t="n">
         <v>0.55</v>
       </c>
+      <c r="AK11" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +1951,9 @@
       <c r="AJ12" t="n">
         <v>0.29</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2032,6 +2070,9 @@
       <c r="AJ13" t="n">
         <v>0.16</v>
       </c>
+      <c r="AK13" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2148,6 +2189,9 @@
       <c r="AJ14" t="n">
         <v>0.48</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2264,6 +2308,9 @@
       <c r="AJ15" t="n">
         <v>0.31</v>
       </c>
+      <c r="AK15" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2380,6 +2427,9 @@
       <c r="AJ16" t="n">
         <v>0.21</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2496,6 +2546,9 @@
       <c r="AJ17" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2612,6 +2665,9 @@
       <c r="AJ18" t="n">
         <v>0.29</v>
       </c>
+      <c r="AK18" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2728,6 +2784,9 @@
       <c r="AJ19" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2844,6 +2903,9 @@
       <c r="AJ20" t="n">
         <v>0.46</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2960,6 +3022,9 @@
       <c r="AJ21" t="n">
         <v>0.31</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3076,6 +3141,9 @@
       <c r="AJ22" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3192,6 +3260,9 @@
       <c r="AJ23" t="n">
         <v>0.49</v>
       </c>
+      <c r="AK23" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3308,6 +3379,9 @@
       <c r="AJ24" t="n">
         <v>0.37</v>
       </c>
+      <c r="AK24" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3424,6 +3498,9 @@
       <c r="AJ25" t="n">
         <v>0.14</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3540,6 +3617,9 @@
       <c r="AJ26" t="n">
         <v>0.43</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3656,6 +3736,9 @@
       <c r="AJ27" t="n">
         <v>0.35</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3772,6 +3855,9 @@
       <c r="AJ28" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3888,6 +3974,9 @@
       <c r="AJ29" t="n">
         <v>0.57</v>
       </c>
+      <c r="AK29" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4004,6 +4093,9 @@
       <c r="AJ30" t="n">
         <v>0.28</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4120,6 +4212,9 @@
       <c r="AJ31" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK31" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4236,6 +4331,9 @@
       <c r="AJ32" t="n">
         <v>0.61</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4352,6 +4450,9 @@
       <c r="AJ33" t="n">
         <v>0.28</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4468,6 +4569,9 @@
       <c r="AJ34" t="n">
         <v>0.11</v>
       </c>
+      <c r="AK34" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4584,6 +4688,9 @@
       <c r="AJ35" t="n">
         <v>0.42</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4700,6 +4807,9 @@
       <c r="AJ36" t="n">
         <v>0.32</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4816,6 +4926,9 @@
       <c r="AJ37" t="n">
         <v>0.26</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4932,6 +5045,9 @@
       <c r="AJ38" t="n">
         <v>0.39</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5048,6 +5164,9 @@
       <c r="AJ39" t="n">
         <v>0.38</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5164,6 +5283,9 @@
       <c r="AJ40" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5280,6 +5402,9 @@
       <c r="AJ41" t="n">
         <v>0.64</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5396,6 +5521,9 @@
       <c r="AJ42" t="n">
         <v>0.24</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5512,6 +5640,9 @@
       <c r="AJ43" t="n">
         <v>0.12</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5628,6 +5759,9 @@
       <c r="AJ44" t="n">
         <v>0.68</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5744,6 +5878,9 @@
       <c r="AJ45" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5860,6 +5997,9 @@
       <c r="AJ46" t="n">
         <v>0.09</v>
       </c>
+      <c r="AK46" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5976,6 +6116,9 @@
       <c r="AJ47" t="n">
         <v>0.51</v>
       </c>
+      <c r="AK47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6092,6 +6235,9 @@
       <c r="AJ48" t="n">
         <v>0.29</v>
       </c>
+      <c r="AK48" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6208,6 +6354,9 @@
       <c r="AJ49" t="n">
         <v>0.2</v>
       </c>
+      <c r="AK49" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6324,6 +6473,9 @@
       <c r="AJ50" t="n">
         <v>0.7</v>
       </c>
+      <c r="AK50" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6440,6 +6592,9 @@
       <c r="AJ51" t="n">
         <v>0.26</v>
       </c>
+      <c r="AK51" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6556,6 +6711,9 @@
       <c r="AJ52" t="n">
         <v>0.04</v>
       </c>
+      <c r="AK52" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6672,6 +6830,9 @@
       <c r="AJ53" t="n">
         <v>0.45</v>
       </c>
+      <c r="AK53" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6788,6 +6949,9 @@
       <c r="AJ54" t="n">
         <v>0.33</v>
       </c>
+      <c r="AK54" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6904,6 +7068,9 @@
       <c r="AJ55" t="n">
         <v>0.22</v>
       </c>
+      <c r="AK55" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7020,6 +7187,9 @@
       <c r="AJ56" t="n">
         <v>0.68</v>
       </c>
+      <c r="AK56" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7136,6 +7306,9 @@
       <c r="AJ57" t="n">
         <v>0.17</v>
       </c>
+      <c r="AK57" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7252,6 +7425,9 @@
       <c r="AJ58" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK58" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7368,6 +7544,9 @@
       <c r="AJ59" t="n">
         <v>0.61</v>
       </c>
+      <c r="AK59" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7484,6 +7663,9 @@
       <c r="AJ60" t="n">
         <v>0.29</v>
       </c>
+      <c r="AK60" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7600,11 +7782,14 @@
       <c r="AJ61" t="n">
         <v>0.1</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,6 +7988,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7914,6 +8104,9 @@
       <c r="AI2" t="n">
         <v>955</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>1018</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8025,6 +8218,9 @@
       <c r="AI3" t="n">
         <v>88</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8136,6 +8332,9 @@
       <c r="AI4" t="n">
         <v>867</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8247,6 +8446,9 @@
       <c r="AI5" t="n">
         <v>744</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8358,6 +8560,9 @@
       <c r="AI6" t="n">
         <v>145</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8469,6 +8674,9 @@
       <c r="AI7" t="n">
         <v>6</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8580,6 +8788,9 @@
       <c r="AI8" t="n">
         <v>60</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8691,6 +8902,9 @@
       <c r="AI9" t="n">
         <v>711</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>751</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8802,6 +9016,9 @@
       <c r="AI10" t="n">
         <v>133</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8913,6 +9130,9 @@
       <c r="AI11" t="n">
         <v>59</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9024,6 +9244,9 @@
       <c r="AI12" t="n">
         <v>52</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9135,6 +9358,9 @@
       <c r="AI13" t="n">
         <v>353</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9246,6 +9472,9 @@
       <c r="AI14" t="n">
         <v>373</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9357,6 +9586,9 @@
       <c r="AI15" t="n">
         <v>229</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9468,6 +9700,9 @@
       <c r="AI16" t="n">
         <v>108</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9579,6 +9814,9 @@
       <c r="AI17" t="n">
         <v>295</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9690,6 +9928,9 @@
       <c r="AI18" t="n">
         <v>301</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9801,6 +10042,9 @@
       <c r="AI19" t="n">
         <v>151</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9912,6 +10156,9 @@
       <c r="AI20" t="n">
         <v>258</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10023,6 +10270,9 @@
       <c r="AI21" t="n">
         <v>90</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10134,6 +10384,9 @@
       <c r="AI22" t="n">
         <v>254</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10245,6 +10498,9 @@
       <c r="AI23" t="n">
         <v>134</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10356,11 +10612,14 @@
       <c r="AI24" t="n">
         <v>83</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -10397,6 +10656,7 @@
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK62"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -764,6 +769,9 @@
       <c r="AK2" t="n">
         <v>0.51</v>
       </c>
+      <c r="AL2" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -883,6 +891,9 @@
       <c r="AK3" t="n">
         <v>0.31</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1002,6 +1013,9 @@
       <c r="AK4" t="n">
         <v>0.18</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1121,6 +1135,9 @@
       <c r="AK5" t="n">
         <v>0.26</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1240,6 +1257,9 @@
       <c r="AK6" t="n">
         <v>0.28</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1359,6 +1379,9 @@
       <c r="AK7" t="n">
         <v>0.46</v>
       </c>
+      <c r="AL7" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1478,6 +1501,9 @@
       <c r="AK8" t="n">
         <v>0.54</v>
       </c>
+      <c r="AL8" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1597,6 +1623,9 @@
       <c r="AK9" t="n">
         <v>0.32</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1716,6 +1745,9 @@
       <c r="AK10" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1835,6 +1867,9 @@
       <c r="AK11" t="n">
         <v>0.53</v>
       </c>
+      <c r="AL11" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1954,6 +1989,9 @@
       <c r="AK12" t="n">
         <v>0.33</v>
       </c>
+      <c r="AL12" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2073,6 +2111,9 @@
       <c r="AK13" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL13" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2192,6 +2233,9 @@
       <c r="AK14" t="n">
         <v>0.46</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2311,6 +2355,9 @@
       <c r="AK15" t="n">
         <v>0.21</v>
       </c>
+      <c r="AL15" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2430,6 +2477,9 @@
       <c r="AK16" t="n">
         <v>0.33</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2549,6 +2599,9 @@
       <c r="AK17" t="n">
         <v>0.54</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2668,6 +2721,9 @@
       <c r="AK18" t="n">
         <v>0.32</v>
       </c>
+      <c r="AL18" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2787,6 +2843,9 @@
       <c r="AK19" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2906,6 +2965,9 @@
       <c r="AK20" t="n">
         <v>0.47</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3025,6 +3087,9 @@
       <c r="AK21" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3144,6 +3209,9 @@
       <c r="AK22" t="n">
         <v>0.33</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3263,6 +3331,9 @@
       <c r="AK23" t="n">
         <v>0.38</v>
       </c>
+      <c r="AL23" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3382,6 +3453,9 @@
       <c r="AK24" t="n">
         <v>0.42</v>
       </c>
+      <c r="AL24" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3501,6 +3575,9 @@
       <c r="AK25" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3620,6 +3697,9 @@
       <c r="AK26" t="n">
         <v>0.42</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3739,6 +3819,9 @@
       <c r="AK27" t="n">
         <v>0.36</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3858,6 +3941,9 @@
       <c r="AK28" t="n">
         <v>0.22</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3977,6 +4063,9 @@
       <c r="AK29" t="n">
         <v>0.54</v>
       </c>
+      <c r="AL29" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4096,6 +4185,9 @@
       <c r="AK30" t="n">
         <v>0.3</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4215,6 +4307,9 @@
       <c r="AK31" t="n">
         <v>0.16</v>
       </c>
+      <c r="AL31" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4334,6 +4429,9 @@
       <c r="AK32" t="n">
         <v>0.62</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4453,6 +4551,9 @@
       <c r="AK33" t="n">
         <v>0.26</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4572,6 +4673,9 @@
       <c r="AK34" t="n">
         <v>0.12</v>
       </c>
+      <c r="AL34" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4691,6 +4795,9 @@
       <c r="AK35" t="n">
         <v>0.39</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4810,6 +4917,9 @@
       <c r="AK36" t="n">
         <v>0.38</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4929,6 +5039,9 @@
       <c r="AK37" t="n">
         <v>0.23</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5048,6 +5161,9 @@
       <c r="AK38" t="n">
         <v>0.4</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5167,6 +5283,9 @@
       <c r="AK39" t="n">
         <v>0.42</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5286,6 +5405,9 @@
       <c r="AK40" t="n">
         <v>0.18</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5405,6 +5527,9 @@
       <c r="AK41" t="n">
         <v>0.6</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5524,6 +5649,9 @@
       <c r="AK42" t="n">
         <v>0.26</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5643,6 +5771,9 @@
       <c r="AK43" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5762,6 +5893,9 @@
       <c r="AK44" t="n">
         <v>0.62</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5881,6 +6015,9 @@
       <c r="AK45" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6000,6 +6137,9 @@
       <c r="AK46" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL46" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6119,6 +6259,9 @@
       <c r="AK47" t="n">
         <v>0.5</v>
       </c>
+      <c r="AL47" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6238,6 +6381,9 @@
       <c r="AK48" t="n">
         <v>0.31</v>
       </c>
+      <c r="AL48" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6357,6 +6503,9 @@
       <c r="AK49" t="n">
         <v>0.19</v>
       </c>
+      <c r="AL49" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6476,6 +6625,9 @@
       <c r="AK50" t="n">
         <v>0.7</v>
       </c>
+      <c r="AL50" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6595,6 +6747,9 @@
       <c r="AK51" t="n">
         <v>0.22</v>
       </c>
+      <c r="AL51" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6714,6 +6869,9 @@
       <c r="AK52" t="n">
         <v>0.08</v>
       </c>
+      <c r="AL52" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6833,6 +6991,9 @@
       <c r="AK53" t="n">
         <v>0.44</v>
       </c>
+      <c r="AL53" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6952,6 +7113,9 @@
       <c r="AK54" t="n">
         <v>0.35</v>
       </c>
+      <c r="AL54" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7071,6 +7235,9 @@
       <c r="AK55" t="n">
         <v>0.21</v>
       </c>
+      <c r="AL55" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7190,6 +7357,9 @@
       <c r="AK56" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AL56" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7309,6 +7479,9 @@
       <c r="AK57" t="n">
         <v>0.32</v>
       </c>
+      <c r="AL57" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7428,6 +7601,9 @@
       <c r="AK58" t="n">
         <v>0.12</v>
       </c>
+      <c r="AL58" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7547,6 +7723,9 @@
       <c r="AK59" t="n">
         <v>0.63</v>
       </c>
+      <c r="AL59" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7666,6 +7845,9 @@
       <c r="AK60" t="n">
         <v>0.17</v>
       </c>
+      <c r="AL60" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7785,11 +7967,14 @@
       <c r="AK61" t="n">
         <v>0.2</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7993,6 +8178,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8107,6 +8297,9 @@
       <c r="AJ2" t="n">
         <v>1018</v>
       </c>
+      <c r="AK2" t="n">
+        <v>994</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8221,6 +8414,9 @@
       <c r="AJ3" t="n">
         <v>93</v>
       </c>
+      <c r="AK3" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8335,6 +8531,9 @@
       <c r="AJ4" t="n">
         <v>925</v>
       </c>
+      <c r="AK4" t="n">
+        <v>920</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8449,6 +8648,9 @@
       <c r="AJ5" t="n">
         <v>784</v>
       </c>
+      <c r="AK5" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8563,6 +8765,9 @@
       <c r="AJ6" t="n">
         <v>150</v>
       </c>
+      <c r="AK6" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8677,6 +8882,9 @@
       <c r="AJ7" t="n">
         <v>10</v>
       </c>
+      <c r="AK7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8791,6 +8999,9 @@
       <c r="AJ8" t="n">
         <v>73</v>
       </c>
+      <c r="AK8" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8905,6 +9116,9 @@
       <c r="AJ9" t="n">
         <v>751</v>
       </c>
+      <c r="AK9" t="n">
+        <v>744</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9019,6 +9233,9 @@
       <c r="AJ10" t="n">
         <v>135</v>
       </c>
+      <c r="AK10" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9133,6 +9350,9 @@
       <c r="AJ11" t="n">
         <v>70</v>
       </c>
+      <c r="AK11" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9247,6 +9467,9 @@
       <c r="AJ12" t="n">
         <v>62</v>
       </c>
+      <c r="AK12" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9361,6 +9584,9 @@
       <c r="AJ13" t="n">
         <v>374</v>
       </c>
+      <c r="AK13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9475,6 +9701,9 @@
       <c r="AJ14" t="n">
         <v>400</v>
       </c>
+      <c r="AK14" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9589,6 +9818,9 @@
       <c r="AJ15" t="n">
         <v>244</v>
       </c>
+      <c r="AK15" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9703,6 +9935,9 @@
       <c r="AJ16" t="n">
         <v>114</v>
       </c>
+      <c r="AK16" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9817,6 +10052,9 @@
       <c r="AJ17" t="n">
         <v>304</v>
       </c>
+      <c r="AK17" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9931,6 +10169,9 @@
       <c r="AJ18" t="n">
         <v>325</v>
       </c>
+      <c r="AK18" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10045,6 +10286,9 @@
       <c r="AJ19" t="n">
         <v>157</v>
       </c>
+      <c r="AK19" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10159,6 +10403,9 @@
       <c r="AJ20" t="n">
         <v>286</v>
       </c>
+      <c r="AK20" t="n">
+        <v>273</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10273,6 +10520,9 @@
       <c r="AJ21" t="n">
         <v>102</v>
       </c>
+      <c r="AK21" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10387,6 +10637,9 @@
       <c r="AJ22" t="n">
         <v>250</v>
       </c>
+      <c r="AK22" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10501,6 +10754,9 @@
       <c r="AJ23" t="n">
         <v>143</v>
       </c>
+      <c r="AK23" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10615,11 +10871,14 @@
       <c r="AJ24" t="n">
         <v>91</v>
       </c>
+      <c r="AK24" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -10657,6 +10916,7 @@
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -772,6 +777,9 @@
       <c r="AL2" t="n">
         <v>0.53</v>
       </c>
+      <c r="AM2" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -894,6 +902,9 @@
       <c r="AL3" t="n">
         <v>0.29</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1016,6 +1027,9 @@
       <c r="AL4" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1138,6 +1152,9 @@
       <c r="AL5" t="n">
         <v>0.36</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1260,6 +1277,9 @@
       <c r="AL6" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1382,6 +1402,9 @@
       <c r="AL7" t="n">
         <v>0.46</v>
       </c>
+      <c r="AM7" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1504,6 +1527,9 @@
       <c r="AL8" t="n">
         <v>0.54</v>
       </c>
+      <c r="AM8" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1626,6 +1652,9 @@
       <c r="AL9" t="n">
         <v>0.3</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1748,6 +1777,9 @@
       <c r="AL10" t="n">
         <v>0.16</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1870,6 +1902,9 @@
       <c r="AL11" t="n">
         <v>0.54</v>
       </c>
+      <c r="AM11" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1992,6 +2027,9 @@
       <c r="AL12" t="n">
         <v>0.31</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2114,6 +2152,9 @@
       <c r="AL13" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2236,6 +2277,9 @@
       <c r="AL14" t="n">
         <v>0.5</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2358,6 +2402,9 @@
       <c r="AL15" t="n">
         <v>0.24</v>
       </c>
+      <c r="AM15" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2480,6 +2527,9 @@
       <c r="AL16" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2602,6 +2652,9 @@
       <c r="AL17" t="n">
         <v>0.55</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2724,6 +2777,9 @@
       <c r="AL18" t="n">
         <v>0.3</v>
       </c>
+      <c r="AM18" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2846,6 +2902,9 @@
       <c r="AL19" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2968,6 +3027,9 @@
       <c r="AL20" t="n">
         <v>0.49</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3090,6 +3152,9 @@
       <c r="AL21" t="n">
         <v>0.27</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3212,6 +3277,9 @@
       <c r="AL22" t="n">
         <v>0.24</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3334,6 +3402,9 @@
       <c r="AL23" t="n">
         <v>0.41</v>
       </c>
+      <c r="AM23" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3456,6 +3527,9 @@
       <c r="AL24" t="n">
         <v>0.25</v>
       </c>
+      <c r="AM24" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3578,6 +3652,9 @@
       <c r="AL25" t="n">
         <v>0.34</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3700,6 +3777,9 @@
       <c r="AL26" t="n">
         <v>0.43</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3822,6 +3902,9 @@
       <c r="AL27" t="n">
         <v>0.34</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3944,6 +4027,9 @@
       <c r="AL28" t="n">
         <v>0.23</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4066,6 +4152,9 @@
       <c r="AL29" t="n">
         <v>0.57</v>
       </c>
+      <c r="AM29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4188,6 +4277,9 @@
       <c r="AL30" t="n">
         <v>0.28</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4310,6 +4402,9 @@
       <c r="AL31" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM31" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4432,6 +4527,9 @@
       <c r="AL32" t="n">
         <v>0.61</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4554,6 +4652,9 @@
       <c r="AL33" t="n">
         <v>0.24</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4676,6 +4777,9 @@
       <c r="AL34" t="n">
         <v>0.15</v>
       </c>
+      <c r="AM34" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4798,6 +4902,9 @@
       <c r="AL35" t="n">
         <v>0.44</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4920,6 +5027,9 @@
       <c r="AL36" t="n">
         <v>0.3</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5042,6 +5152,9 @@
       <c r="AL37" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5164,6 +5277,9 @@
       <c r="AL38" t="n">
         <v>0.39</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5286,6 +5402,9 @@
       <c r="AL39" t="n">
         <v>0.39</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5408,6 +5527,9 @@
       <c r="AL40" t="n">
         <v>0.22</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5530,6 +5652,9 @@
       <c r="AL41" t="n">
         <v>0.59</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5652,6 +5777,9 @@
       <c r="AL42" t="n">
         <v>0.24</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5774,6 +5902,9 @@
       <c r="AL43" t="n">
         <v>0.17</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5896,6 +6027,9 @@
       <c r="AL44" t="n">
         <v>0.67</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6018,6 +6152,9 @@
       <c r="AL45" t="n">
         <v>0.22</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6140,6 +6277,9 @@
       <c r="AL46" t="n">
         <v>0.11</v>
       </c>
+      <c r="AM46" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6262,6 +6402,9 @@
       <c r="AL47" t="n">
         <v>0.51</v>
       </c>
+      <c r="AM47" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6384,6 +6527,9 @@
       <c r="AL48" t="n">
         <v>0.3</v>
       </c>
+      <c r="AM48" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6506,6 +6652,9 @@
       <c r="AL49" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM49" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6628,6 +6777,9 @@
       <c r="AL50" t="n">
         <v>0.68</v>
       </c>
+      <c r="AM50" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6750,6 +6902,9 @@
       <c r="AL51" t="n">
         <v>0.23</v>
       </c>
+      <c r="AM51" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6872,6 +7027,9 @@
       <c r="AL52" t="n">
         <v>0.09</v>
       </c>
+      <c r="AM52" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6994,6 +7152,9 @@
       <c r="AL53" t="n">
         <v>0.44</v>
       </c>
+      <c r="AM53" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7116,6 +7277,9 @@
       <c r="AL54" t="n">
         <v>0.33</v>
       </c>
+      <c r="AM54" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7238,6 +7402,9 @@
       <c r="AL55" t="n">
         <v>0.23</v>
       </c>
+      <c r="AM55" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7360,6 +7527,9 @@
       <c r="AL56" t="n">
         <v>0.59</v>
       </c>
+      <c r="AM56" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7482,6 +7652,9 @@
       <c r="AL57" t="n">
         <v>0.23</v>
       </c>
+      <c r="AM57" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7604,6 +7777,9 @@
       <c r="AL58" t="n">
         <v>0.18</v>
       </c>
+      <c r="AM58" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7726,6 +7902,9 @@
       <c r="AL59" t="n">
         <v>0.67</v>
       </c>
+      <c r="AM59" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7848,6 +8027,9 @@
       <c r="AL60" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM60" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7970,11 +8152,14 @@
       <c r="AL61" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -7989,7 +8174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8183,6 +8368,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8300,6 +8490,9 @@
       <c r="AK2" t="n">
         <v>994</v>
       </c>
+      <c r="AL2" t="n">
+        <v>1008</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8417,6 +8610,9 @@
       <c r="AK3" t="n">
         <v>74</v>
       </c>
+      <c r="AL3" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8534,6 +8730,9 @@
       <c r="AK4" t="n">
         <v>920</v>
       </c>
+      <c r="AL4" t="n">
+        <v>907</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8651,6 +8850,9 @@
       <c r="AK5" t="n">
         <v>777</v>
       </c>
+      <c r="AL5" t="n">
+        <v>776</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8768,6 +8970,9 @@
       <c r="AK6" t="n">
         <v>141</v>
       </c>
+      <c r="AL6" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8885,6 +9090,9 @@
       <c r="AK7" t="n">
         <v>6</v>
       </c>
+      <c r="AL7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9002,6 +9210,9 @@
       <c r="AK8" t="n">
         <v>70</v>
       </c>
+      <c r="AL8" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9119,6 +9330,9 @@
       <c r="AK9" t="n">
         <v>744</v>
       </c>
+      <c r="AL9" t="n">
+        <v>745</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9236,6 +9450,9 @@
       <c r="AK10" t="n">
         <v>128</v>
       </c>
+      <c r="AL10" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9353,6 +9570,9 @@
       <c r="AK11" t="n">
         <v>65</v>
       </c>
+      <c r="AL11" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9470,6 +9690,9 @@
       <c r="AK12" t="n">
         <v>57</v>
       </c>
+      <c r="AL12" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9587,6 +9810,9 @@
       <c r="AK13" t="n">
         <v>381</v>
       </c>
+      <c r="AL13" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9704,6 +9930,9 @@
       <c r="AK14" t="n">
         <v>380</v>
       </c>
+      <c r="AL14" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9821,6 +10050,9 @@
       <c r="AK15" t="n">
         <v>233</v>
       </c>
+      <c r="AL15" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9938,6 +10170,9 @@
       <c r="AK16" t="n">
         <v>124</v>
       </c>
+      <c r="AL16" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10055,6 +10290,9 @@
       <c r="AK17" t="n">
         <v>313</v>
       </c>
+      <c r="AL17" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10172,6 +10410,9 @@
       <c r="AK18" t="n">
         <v>316</v>
       </c>
+      <c r="AL18" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10289,6 +10530,9 @@
       <c r="AK19" t="n">
         <v>151</v>
       </c>
+      <c r="AL19" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10406,6 +10650,9 @@
       <c r="AK20" t="n">
         <v>273</v>
       </c>
+      <c r="AL20" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10523,6 +10770,9 @@
       <c r="AK21" t="n">
         <v>87</v>
       </c>
+      <c r="AL21" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10640,6 +10890,9 @@
       <c r="AK22" t="n">
         <v>275</v>
       </c>
+      <c r="AL22" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10757,6 +11010,9 @@
       <c r="AK23" t="n">
         <v>149</v>
       </c>
+      <c r="AL23" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10874,11 +11130,14 @@
       <c r="AK24" t="n">
         <v>79</v>
       </c>
+      <c r="AL24" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -10917,6 +11176,7 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_12_obavy_ztrata_prace.xlsx
+++ b/ZBP_12_obavy_ztrata_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM62"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,7 +652,12 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1278,7 +1295,10 @@
         <v>0.18</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -1403,7 +1423,10 @@
         <v>0.46</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -1528,7 +1551,10 @@
         <v>0.54</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -1653,7 +1679,10 @@
         <v>0.3</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
@@ -1780,6 +1809,9 @@
       <c r="AM10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1903,7 +1935,10 @@
         <v>0.54</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="12">
@@ -2028,7 +2063,10 @@
         <v>0.31</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
@@ -2155,6 +2193,9 @@
       <c r="AM13" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2278,6 +2319,9 @@
         <v>0.5</v>
       </c>
       <c r="AM14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AN14" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2403,7 +2447,10 @@
         <v>0.24</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -2530,6 +2577,9 @@
       <c r="AM16" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2653,7 +2703,10 @@
         <v>0.55</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="18">
@@ -2778,7 +2831,10 @@
         <v>0.3</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
@@ -2905,6 +2961,9 @@
       <c r="AM19" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3030,6 +3089,9 @@
       <c r="AM20" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3155,6 +3217,9 @@
       <c r="AM21" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3280,6 +3345,9 @@
       <c r="AM22" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3403,7 +3471,10 @@
         <v>0.41</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="24">
@@ -3528,7 +3599,10 @@
         <v>0.25</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
@@ -3653,7 +3727,10 @@
         <v>0.34</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="26">
@@ -3780,6 +3857,9 @@
       <c r="AM26" t="n">
         <v>0.45</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3905,6 +3985,9 @@
       <c r="AM27" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4030,6 +4113,9 @@
       <c r="AM28" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4153,7 +4239,10 @@
         <v>0.57</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="30">
@@ -4278,7 +4367,10 @@
         <v>0.28</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="31">
@@ -4403,7 +4495,10 @@
         <v>0.15</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="32">
@@ -4530,6 +4625,9 @@
       <c r="AM32" t="n">
         <v>0.61</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4655,6 +4753,9 @@
       <c r="AM33" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4780,6 +4881,9 @@
       <c r="AM34" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4903,7 +5007,10 @@
         <v>0.44</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="36">
@@ -5028,7 +5135,10 @@
         <v>0.3</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="37">
@@ -5153,7 +5263,10 @@
         <v>0.26</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="38">
@@ -5280,6 +5393,9 @@
       <c r="AM38" t="n">
         <v>0.45</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5403,7 +5519,10 @@
         <v>0.39</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="40">
@@ -5528,7 +5647,10 @@
         <v>0.22</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="41">
@@ -5653,7 +5775,10 @@
         <v>0.59</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="42">
@@ -5778,7 +5903,10 @@
         <v>0.24</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="43">
@@ -5905,6 +6033,9 @@
       <c r="AM43" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6030,6 +6161,9 @@
       <c r="AM44" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6155,6 +6289,9 @@
       <c r="AM45" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6280,6 +6417,9 @@
       <c r="AM46" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6403,7 +6543,10 @@
         <v>0.51</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="48">
@@ -6530,6 +6673,9 @@
       <c r="AM48" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6653,7 +6799,10 @@
         <v>0.19</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="50">
@@ -6778,7 +6927,10 @@
         <v>0.68</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="51">
@@ -6903,7 +7055,10 @@
         <v>0.23</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="52">
@@ -7028,7 +7183,10 @@
         <v>0.09</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
@@ -7155,6 +7313,9 @@
       <c r="AM53" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7280,6 +7441,9 @@
       <c r="AM54" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7405,6 +7569,9 @@
       <c r="AM55" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7528,7 +7695,10 @@
         <v>0.59</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="57">
@@ -7653,7 +7823,10 @@
         <v>0.23</v>
       </c>
       <c r="AM57" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="58">
@@ -7778,7 +7951,10 @@
         <v>0.18</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="59">
@@ -7905,6 +8081,9 @@
       <c r="AM59" t="n">
         <v>0.66</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8028,7 +8207,10 @@
         <v>0.26</v>
       </c>
       <c r="AM60" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="61">
@@ -8153,13 +8335,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AM61" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -8174,7 +8359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8370,7 +8555,12 @@
       </c>
       <c r="AL1" s="2" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8681,10 @@
         <v>994</v>
       </c>
       <c r="AL2" t="n">
-        <v>1008</v>
+        <v>1029</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1001</v>
       </c>
     </row>
     <row r="3">
@@ -8611,7 +8804,10 @@
         <v>74</v>
       </c>
       <c r="AL3" t="n">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -8731,7 +8927,10 @@
         <v>920</v>
       </c>
       <c r="AL4" t="n">
-        <v>907</v>
+        <v>930</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>911</v>
       </c>
     </row>
     <row r="5">
@@ -8851,7 +9050,10 @@
         <v>777</v>
       </c>
       <c r="AL5" t="n">
-        <v>776</v>
+        <v>790</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>768</v>
       </c>
     </row>
     <row r="6">
@@ -8971,7 +9173,10 @@
         <v>141</v>
       </c>
       <c r="AL6" t="n">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -9093,6 +9298,9 @@
       <c r="AL7" t="n">
         <v>6</v>
       </c>
+      <c r="AM7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9211,7 +9419,10 @@
         <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -9331,7 +9542,10 @@
         <v>744</v>
       </c>
       <c r="AL9" t="n">
-        <v>745</v>
+        <v>757</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>734</v>
       </c>
     </row>
     <row r="10">
@@ -9451,7 +9665,10 @@
         <v>128</v>
       </c>
       <c r="AL10" t="n">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="11">
@@ -9571,7 +9788,10 @@
         <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -9691,7 +9911,10 @@
         <v>57</v>
       </c>
       <c r="AL12" t="n">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -9811,6 +10034,9 @@
         <v>381</v>
       </c>
       <c r="AL13" t="n">
+        <v>366</v>
+      </c>
+      <c r="AM13" t="n">
         <v>361</v>
       </c>
     </row>
@@ -9931,6 +10157,9 @@
         <v>380</v>
       </c>
       <c r="AL14" t="n">
+        <v>413</v>
+      </c>
+      <c r="AM14" t="n">
         <v>400</v>
       </c>
     </row>
@@ -10051,7 +10280,10 @@
         <v>233</v>
       </c>
       <c r="AL15" t="n">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -10171,7 +10403,10 @@
         <v>124</v>
       </c>
       <c r="AL16" t="n">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -10291,7 +10526,10 @@
         <v>313</v>
       </c>
       <c r="AL17" t="n">
-        <v>305</v>
+        <v>315</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -10411,7 +10649,10 @@
         <v>316</v>
       </c>
       <c r="AL18" t="n">
-        <v>344</v>
+        <v>349</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="19">
@@ -10531,7 +10772,10 @@
         <v>151</v>
       </c>
       <c r="AL19" t="n">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -10651,7 +10895,10 @@
         <v>273</v>
       </c>
       <c r="AL20" t="n">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="21">
@@ -10771,7 +11018,10 @@
         <v>87</v>
       </c>
       <c r="AL21" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -10891,7 +11141,10 @@
         <v>275</v>
       </c>
       <c r="AL22" t="n">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="23">
@@ -11011,7 +11264,10 @@
         <v>149</v>
       </c>
       <c r="AL23" t="n">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="24">
@@ -11131,13 +11387,16 @@
         <v>79</v>
       </c>
       <c r="AL24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AM24" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Obavy ze ztráty práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -11177,6 +11436,7 @@
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
